--- a/data/strategies/东方场内策略结果.xlsx
+++ b/data/strategies/东方场内策略结果.xlsx
@@ -18,23 +18,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="195">
+  <si>
+    <t>富国中证细分机械设备产业ETF</t>
+  </si>
+  <si>
+    <t>华夏国证半导体芯片ETF</t>
+  </si>
+  <si>
+    <t>国泰中证军工ETF</t>
+  </si>
   <si>
     <t>50ETF 红利低波动ETF</t>
   </si>
   <si>
-    <t>富国中证细分机械设备产业ETF</t>
-  </si>
-  <si>
-    <t>国泰中证军工ETF</t>
-  </si>
-  <si>
     <t>华泰柏瑞中证光伏产业ETF</t>
   </si>
   <si>
-    <t>华夏国证半导体芯片ETF</t>
-  </si>
-  <si>
     <t>”业绩改善“+”政策确定“</t>
   </si>
   <si>
@@ -65,70 +65,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>9.71%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>22.45%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>20.36%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>18.19%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>24.63%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>11.66%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>19.52%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>15.02%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>23.97%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>19.76%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>24.82%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场内权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场内基金</t>
@@ -137,106 +137,109 @@
     <t>场内代码</t>
   </si>
   <si>
+    <t>159886.OF</t>
+  </si>
+  <si>
+    <t>159995.OF</t>
+  </si>
+  <si>
+    <t>512660.OF</t>
+  </si>
+  <si>
     <t>512890.OF</t>
   </si>
   <si>
-    <t>159886.OF</t>
-  </si>
-  <si>
-    <t>512660.OF</t>
-  </si>
-  <si>
     <t>515790.OF</t>
   </si>
   <si>
-    <t>159995.OF</t>
-  </si>
-  <si>
-    <t>0.23%</t>
-  </si>
-  <si>
-    <t>4.76%</t>
-  </si>
-  <si>
-    <t>14.72%</t>
-  </si>
-  <si>
-    <t>17.49%</t>
-  </si>
-  <si>
-    <t>9.29%</t>
-  </si>
-  <si>
-    <t>24.48%</t>
-  </si>
-  <si>
-    <t>12.76%</t>
-  </si>
-  <si>
-    <t>28.47%</t>
-  </si>
-  <si>
-    <t>38.65%</t>
-  </si>
-  <si>
-    <t>14.45%</t>
-  </si>
-  <si>
-    <t>14.67%</t>
-  </si>
-  <si>
-    <t>-10.02%</t>
-  </si>
-  <si>
-    <t>12.98%</t>
-  </si>
-  <si>
-    <t>22.77%</t>
-  </si>
-  <si>
-    <t>7.83%</t>
-  </si>
-  <si>
-    <t>28.79%</t>
-  </si>
-  <si>
-    <t>26.92%</t>
-  </si>
-  <si>
-    <t>34.69%</t>
-  </si>
-  <si>
-    <t>38.12%</t>
-  </si>
-  <si>
-    <t>10.28%</t>
-  </si>
-  <si>
-    <t>27.94%</t>
-  </si>
-  <si>
-    <t>26.07%</t>
-  </si>
-  <si>
-    <t>28.36%</t>
-  </si>
-  <si>
-    <t>32.22%</t>
-  </si>
-  <si>
-    <t>13.69%</t>
-  </si>
-  <si>
-    <t>36.90%</t>
-  </si>
-  <si>
-    <t>34.49%</t>
-  </si>
-  <si>
-    <t>35.81%</t>
-  </si>
-  <si>
-    <t>35.03%</t>
+    <t>16.87%</t>
+  </si>
+  <si>
+    <t>20.70%</t>
+  </si>
+  <si>
+    <t>-0.31%</t>
+  </si>
+  <si>
+    <t>-2.81%</t>
+  </si>
+  <si>
+    <t>23.86%</t>
+  </si>
+  <si>
+    <t>22.83%</t>
+  </si>
+  <si>
+    <t>33.16%</t>
+  </si>
+  <si>
+    <t>7.93%</t>
+  </si>
+  <si>
+    <t>3.57%</t>
+  </si>
+  <si>
+    <t>30.10%</t>
+  </si>
+  <si>
+    <t>20.60%</t>
+  </si>
+  <si>
+    <t>32.52%</t>
+  </si>
+  <si>
+    <t>-10.93%</t>
+  </si>
+  <si>
+    <t>11.33%</t>
+  </si>
+  <si>
+    <t>21.57%</t>
+  </si>
+  <si>
+    <t>30.38%</t>
+  </si>
+  <si>
+    <t>45.17%</t>
+  </si>
+  <si>
+    <t>34.61%</t>
+  </si>
+  <si>
+    <t>11.91%</t>
+  </si>
+  <si>
+    <t>37.33%</t>
+  </si>
+  <si>
+    <t>28.32%</t>
+  </si>
+  <si>
+    <t>34.23%</t>
+  </si>
+  <si>
+    <t>28.59%</t>
+  </si>
+  <si>
+    <t>11.03%</t>
+  </si>
+  <si>
+    <t>30.05%</t>
+  </si>
+  <si>
+    <t>36.55%</t>
+  </si>
+  <si>
+    <t>35.91%</t>
+  </si>
+  <si>
+    <t>35.05%</t>
+  </si>
+  <si>
+    <t>13.92%</t>
+  </si>
+  <si>
+    <t>36.12%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -251,358 +254,355 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
   </si>
   <si>
     <t>601012.SH</t>
   </si>
   <si>
+    <t>002129.SZ</t>
+  </si>
+  <si>
     <t>300750.SZ</t>
   </si>
   <si>
     <t>300274.SZ</t>
   </si>
   <si>
-    <t>002129.SZ</t>
+    <t>600438.SH</t>
+  </si>
+  <si>
+    <t>300782.SZ</t>
   </si>
   <si>
     <t>603501.SH</t>
   </si>
   <si>
-    <t>600438.SH</t>
-  </si>
-  <si>
-    <t>000718.SZ</t>
+    <t>603986.SH</t>
   </si>
   <si>
     <t>300450.SZ</t>
   </si>
   <si>
-    <t>300782.SZ</t>
-  </si>
-  <si>
     <t>600893.SH</t>
   </si>
   <si>
-    <t>603986.SH</t>
+    <t>300316.SZ</t>
   </si>
   <si>
     <t>600703.SH</t>
   </si>
   <si>
+    <t>600089.SH</t>
+  </si>
+  <si>
+    <t>601989.SH</t>
+  </si>
+  <si>
     <t>600031.SH</t>
   </si>
   <si>
-    <t>300316.SZ</t>
-  </si>
-  <si>
-    <t>600089.SH</t>
-  </si>
-  <si>
-    <t>601989.SH</t>
-  </si>
-  <si>
     <t>002049.SZ</t>
   </si>
   <si>
     <t>002179.SZ</t>
   </si>
   <si>
-    <t>000768.SZ</t>
-  </si>
-  <si>
-    <t>601877.SH</t>
-  </si>
-  <si>
-    <t>4.51%</t>
-  </si>
-  <si>
-    <t>4.00%</t>
-  </si>
-  <si>
-    <t>3.19%</t>
-  </si>
-  <si>
-    <t>2.91%</t>
-  </si>
-  <si>
-    <t>2.67%</t>
-  </si>
-  <si>
-    <t>2.24%</t>
-  </si>
-  <si>
-    <t>2.05%</t>
-  </si>
-  <si>
-    <t>1.94%</t>
-  </si>
-  <si>
-    <t>1.76%</t>
-  </si>
-  <si>
-    <t>1.68%</t>
-  </si>
-  <si>
-    <t>1.61%</t>
+    <t>002371.SZ</t>
+  </si>
+  <si>
+    <t>600745.SH</t>
+  </si>
+  <si>
+    <t>603806.SH</t>
+  </si>
+  <si>
+    <t>494.64%</t>
+  </si>
+  <si>
+    <t>385.56%</t>
+  </si>
+  <si>
+    <t>343.00%</t>
+  </si>
+  <si>
+    <t>313.20%</t>
+  </si>
+  <si>
+    <t>287.64%</t>
+  </si>
+  <si>
+    <t>193.35%</t>
+  </si>
+  <si>
+    <t>188.96%</t>
+  </si>
+  <si>
+    <t>176.09%</t>
+  </si>
+  <si>
+    <t>160.80%</t>
+  </si>
+  <si>
+    <t>149.48%</t>
+  </si>
+  <si>
+    <t>147.59%</t>
+  </si>
+  <si>
+    <t>138.34%</t>
+  </si>
+  <si>
+    <t>136.04%</t>
+  </si>
+  <si>
+    <t>126.00%</t>
+  </si>
+  <si>
+    <t>123.90%</t>
+  </si>
+  <si>
+    <t>121.80%</t>
+  </si>
+  <si>
+    <t>114.56%</t>
+  </si>
+  <si>
+    <t>114.53%</t>
+  </si>
+  <si>
+    <t>112.47%</t>
+  </si>
+  <si>
+    <t>110.68%</t>
+  </si>
+  <si>
+    <t>隆基股份</t>
+  </si>
+  <si>
+    <t>中环股份</t>
+  </si>
+  <si>
+    <t>宁德时代</t>
+  </si>
+  <si>
+    <t>阳光电源</t>
+  </si>
+  <si>
+    <t>通威股份</t>
+  </si>
+  <si>
+    <t>卓胜微</t>
+  </si>
+  <si>
+    <t>韦尔股份</t>
+  </si>
+  <si>
+    <t>兆易创新</t>
+  </si>
+  <si>
+    <t>先导智能</t>
+  </si>
+  <si>
+    <t>航发动力</t>
+  </si>
+  <si>
+    <t>晶盛机电</t>
+  </si>
+  <si>
+    <t>三安光电</t>
+  </si>
+  <si>
+    <t>特变电工</t>
+  </si>
+  <si>
+    <t>中国重工</t>
+  </si>
+  <si>
+    <t>三一重工</t>
+  </si>
+  <si>
+    <t>紫光国微</t>
+  </si>
+  <si>
+    <t>中航光电</t>
+  </si>
+  <si>
+    <t>北方华创</t>
+  </si>
+  <si>
+    <t>闻泰科技</t>
+  </si>
+  <si>
+    <t>福斯特</t>
+  </si>
+  <si>
+    <t>太阳能组件</t>
+  </si>
+  <si>
+    <t>新能源材料</t>
+  </si>
+  <si>
+    <t>动力电池系统</t>
+  </si>
+  <si>
+    <t>电站系统集成(不含自制产品)</t>
+  </si>
+  <si>
+    <t>配合饲料</t>
+  </si>
+  <si>
+    <t>射频开关</t>
+  </si>
+  <si>
+    <t>CMOS图像传感器产品</t>
+  </si>
+  <si>
+    <t>存储芯片销售</t>
+  </si>
+  <si>
+    <t>锂电池设备</t>
+  </si>
+  <si>
+    <t>航空发动机制造及衍生产品</t>
+  </si>
+  <si>
+    <t>晶体硅生长设备</t>
+  </si>
+  <si>
+    <t>化合物半导体产品</t>
+  </si>
+  <si>
+    <t>新能源产品及集成工程</t>
+  </si>
+  <si>
+    <t>海洋运输装备</t>
+  </si>
+  <si>
+    <t>挖掘机械</t>
+  </si>
+  <si>
+    <t>集成电路</t>
+  </si>
+  <si>
+    <t>电连接器</t>
+  </si>
+  <si>
+    <t>电子工艺装备</t>
+  </si>
+  <si>
+    <t>手机及配件</t>
+  </si>
+  <si>
+    <t>EVA胶膜</t>
+  </si>
+  <si>
+    <t>41.29%</t>
+  </si>
+  <si>
+    <t>65.91%</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>74.57%</t>
+  </si>
+  <si>
+    <t>8.06%</t>
+  </si>
+  <si>
+    <t>49.93%</t>
+  </si>
+  <si>
+    <t>50.37%</t>
+  </si>
+  <si>
+    <t>38.13%</t>
+  </si>
+  <si>
+    <t>28.45%</t>
+  </si>
+  <si>
+    <t>-4.93%</t>
+  </si>
+  <si>
+    <t>75.60%</t>
+  </si>
+  <si>
+    <t>24.28%</t>
+  </si>
+  <si>
+    <t>36.65%</t>
+  </si>
+  <si>
+    <t>0.25%</t>
+  </si>
+  <si>
+    <t>-23.86%</t>
+  </si>
+  <si>
+    <t>27.29%</t>
+  </si>
+  <si>
+    <t>11.24%</t>
+  </si>
+  <si>
+    <t>93.45%</t>
+  </si>
+  <si>
+    <t>1.90%</t>
+  </si>
+  <si>
+    <t>57.25%</t>
+  </si>
+  <si>
+    <t>一级标签</t>
+  </si>
+  <si>
+    <t>标签占比</t>
+  </si>
+  <si>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
+    <t>半导体芯片</t>
+  </si>
+  <si>
+    <t>锂电池</t>
+  </si>
+  <si>
+    <t>国防军工</t>
+  </si>
+  <si>
+    <t>光学光电子</t>
+  </si>
+  <si>
+    <t>机械设备</t>
+  </si>
+  <si>
+    <t>消费电子</t>
+  </si>
+  <si>
+    <t>23.44%</t>
+  </si>
+  <si>
+    <t>9.93%</t>
+  </si>
+  <si>
+    <t>6.30%</t>
+  </si>
+  <si>
+    <t>4.88%</t>
+  </si>
+  <si>
+    <t>1.73%</t>
   </si>
   <si>
     <t>1.55%</t>
   </si>
   <si>
-    <t>1.50%</t>
-  </si>
-  <si>
-    <t>1.43%</t>
-  </si>
-  <si>
-    <t>1.42%</t>
-  </si>
-  <si>
     <t>1.41%</t>
-  </si>
-  <si>
-    <t>1.24%</t>
-  </si>
-  <si>
-    <t>1.13%</t>
-  </si>
-  <si>
-    <t>1.12%</t>
-  </si>
-  <si>
-    <t>隆基股份</t>
-  </si>
-  <si>
-    <t>宁德时代</t>
-  </si>
-  <si>
-    <t>阳光电源</t>
-  </si>
-  <si>
-    <t>中环股份</t>
-  </si>
-  <si>
-    <t>韦尔股份</t>
-  </si>
-  <si>
-    <t>通威股份</t>
-  </si>
-  <si>
-    <t>苏宁环球</t>
-  </si>
-  <si>
-    <t>先导智能</t>
-  </si>
-  <si>
-    <t>卓胜微</t>
-  </si>
-  <si>
-    <t>航发动力</t>
-  </si>
-  <si>
-    <t>兆易创新</t>
-  </si>
-  <si>
-    <t>三安光电</t>
-  </si>
-  <si>
-    <t>三一重工</t>
-  </si>
-  <si>
-    <t>晶盛机电</t>
-  </si>
-  <si>
-    <t>特变电工</t>
-  </si>
-  <si>
-    <t>中国重工</t>
-  </si>
-  <si>
-    <t>紫光国微</t>
-  </si>
-  <si>
-    <t>中航光电</t>
-  </si>
-  <si>
-    <t>中航西飞</t>
-  </si>
-  <si>
-    <t>正泰电器</t>
-  </si>
-  <si>
-    <t>太阳能组件</t>
-  </si>
-  <si>
-    <t>动力电池系统</t>
-  </si>
-  <si>
-    <t>电站系统集成(不含自制产品)</t>
-  </si>
-  <si>
-    <t>新能源材料</t>
-  </si>
-  <si>
-    <t>CMOS图像传感器产品</t>
-  </si>
-  <si>
-    <t>配合饲料</t>
-  </si>
-  <si>
-    <t>商品房</t>
-  </si>
-  <si>
-    <t>锂电池设备</t>
-  </si>
-  <si>
-    <t>射频开关</t>
-  </si>
-  <si>
-    <t>航空发动机制造及衍生产品</t>
-  </si>
-  <si>
-    <t>存储芯片销售</t>
-  </si>
-  <si>
-    <t>化合物半导体产品</t>
-  </si>
-  <si>
-    <t>挖掘机械</t>
-  </si>
-  <si>
-    <t>晶体硅生长设备</t>
-  </si>
-  <si>
-    <t>新能源产品及集成工程</t>
-  </si>
-  <si>
-    <t>海洋运输装备</t>
-  </si>
-  <si>
-    <t>集成电路</t>
-  </si>
-  <si>
-    <t>电连接器</t>
-  </si>
-  <si>
-    <t>航空产品</t>
-  </si>
-  <si>
-    <t>太阳能电池组件</t>
-  </si>
-  <si>
-    <t>32.52%</t>
-  </si>
-  <si>
-    <t>45.26%</t>
-  </si>
-  <si>
-    <t>61.09%</t>
-  </si>
-  <si>
-    <t>44.06%</t>
-  </si>
-  <si>
-    <t>30.18%</t>
-  </si>
-  <si>
-    <t>9.78%</t>
-  </si>
-  <si>
-    <t>118.05%</t>
-  </si>
-  <si>
-    <t>11.23%</t>
-  </si>
-  <si>
-    <t>60.36%</t>
-  </si>
-  <si>
-    <t>-1.15%</t>
-  </si>
-  <si>
-    <t>28.48%</t>
-  </si>
-  <si>
-    <t>17.00%</t>
-  </si>
-  <si>
-    <t>-14.61%</t>
-  </si>
-  <si>
-    <t>55.76%</t>
-  </si>
-  <si>
-    <t>29.00%</t>
-  </si>
-  <si>
-    <t>0.25%</t>
-  </si>
-  <si>
-    <t>14.89%</t>
-  </si>
-  <si>
-    <t>6.67%</t>
-  </si>
-  <si>
-    <t>-21.93%</t>
-  </si>
-  <si>
-    <t>-8.67%</t>
-  </si>
-  <si>
-    <t>一级标签</t>
-  </si>
-  <si>
-    <t>标签占比</t>
-  </si>
-  <si>
-    <t>太阳能光伏</t>
-  </si>
-  <si>
-    <t>锂电池</t>
-  </si>
-  <si>
-    <t>军工</t>
-  </si>
-  <si>
-    <t>饲料养殖</t>
-  </si>
-  <si>
-    <t>房地产开发</t>
-  </si>
-  <si>
-    <t>电子</t>
-  </si>
-  <si>
-    <t>机械设备</t>
-  </si>
-  <si>
-    <t>电气设备</t>
-  </si>
-  <si>
-    <t>35.89%</t>
-  </si>
-  <si>
-    <t>17.29%</t>
-  </si>
-  <si>
-    <t>13.78%</t>
-  </si>
-  <si>
-    <t>12.69%</t>
-  </si>
-  <si>
-    <t>5.20%</t>
-  </si>
-  <si>
-    <t>3.60%</t>
-  </si>
-  <si>
-    <t>3.48%</t>
-  </si>
-  <si>
-    <t>3.32%</t>
   </si>
 </sst>
 </file>
@@ -966,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1035,19 +1035,19 @@
         <v>44200</v>
       </c>
       <c r="B3">
-        <v>0.9933107854190155</v>
+        <v>1.064836999224328</v>
       </c>
       <c r="C3">
-        <v>1.064836999224328</v>
+        <v>1.028039681888989</v>
       </c>
       <c r="D3">
         <v>1.066006857855362</v>
       </c>
       <c r="E3">
+        <v>0.9933107854190155</v>
+      </c>
+      <c r="F3">
         <v>1.053756818581735</v>
-      </c>
-      <c r="F3">
-        <v>1.028039681888989</v>
       </c>
       <c r="G3">
         <v>1.041190228593886</v>
@@ -1064,19 +1064,19 @@
         <v>44201</v>
       </c>
       <c r="B4">
-        <v>0.9927095077038707</v>
+        <v>1.079573026780003</v>
       </c>
       <c r="C4">
-        <v>1.079573026780003</v>
+        <v>1.079855702221858</v>
       </c>
       <c r="D4">
         <v>1.075358478802993</v>
       </c>
       <c r="E4">
+        <v>0.9927095077038707</v>
+      </c>
+      <c r="F4">
         <v>1.055076544078832</v>
-      </c>
-      <c r="F4">
-        <v>1.079855702221858</v>
       </c>
       <c r="G4">
         <v>1.056514651917511</v>
@@ -1093,19 +1093,19 @@
         <v>44202</v>
       </c>
       <c r="B5">
-        <v>1.001428034573469</v>
+        <v>1.086848968240705</v>
       </c>
       <c r="C5">
-        <v>1.086848968240705</v>
+        <v>1.063786176928753</v>
       </c>
       <c r="D5">
         <v>1.09180174563591</v>
       </c>
       <c r="E5">
+        <v>1.001428034573469</v>
+      </c>
+      <c r="F5">
         <v>1.053580855182122</v>
-      </c>
-      <c r="F5">
-        <v>1.063786176928753</v>
       </c>
       <c r="G5">
         <v>1.059489156112192</v>
@@ -1122,19 +1122,19 @@
         <v>44203</v>
       </c>
       <c r="B6">
-        <v>1.001803833145434</v>
+        <v>1.132719877079329</v>
       </c>
       <c r="C6">
-        <v>1.132719877079329</v>
+        <v>1.072886775436583</v>
       </c>
       <c r="D6">
         <v>1.118609725685786</v>
       </c>
       <c r="E6">
+        <v>1.001803833145434</v>
+      </c>
+      <c r="F6">
         <v>1.095284180890375</v>
-      </c>
-      <c r="F6">
-        <v>1.072886775436583</v>
       </c>
       <c r="G6">
         <v>1.084260878447501</v>
@@ -1151,19 +1151,19 @@
         <v>44204</v>
       </c>
       <c r="B7">
-        <v>1.004735062006764</v>
+        <v>1.118095518166899</v>
       </c>
       <c r="C7">
-        <v>1.118095518166899</v>
+        <v>1.069935229974584</v>
       </c>
       <c r="D7">
         <v>1.088606608478803</v>
       </c>
       <c r="E7">
+        <v>1.004735062006764</v>
+      </c>
+      <c r="F7">
         <v>1.071969030441668</v>
-      </c>
-      <c r="F7">
-        <v>1.069935229974584</v>
       </c>
       <c r="G7">
         <v>1.070668289813744</v>
@@ -1180,22 +1180,22 @@
         <v>44207</v>
       </c>
       <c r="B8">
-        <v>0.9954152574220217</v>
+        <v>1.089060901222685</v>
       </c>
       <c r="C8">
-        <v>1.089060901222685</v>
+        <v>1.087808477494466</v>
       </c>
       <c r="D8">
         <v>1.052602867830424</v>
       </c>
       <c r="E8">
+        <v>0.9954152574220217</v>
+      </c>
+      <c r="F8">
         <v>1.02841808903748</v>
       </c>
-      <c r="F8">
-        <v>1.087808477494466</v>
-      </c>
       <c r="G8">
-        <v>1.050661118601416</v>
+        <v>1.050661118601415</v>
       </c>
       <c r="H8">
         <v>1.013866573688848</v>
@@ -1209,19 +1209,19 @@
         <v>44208</v>
       </c>
       <c r="B9">
-        <v>0.9959413754227734</v>
+        <v>1.132395423494981</v>
       </c>
       <c r="C9">
-        <v>1.132395423494981</v>
+        <v>1.1151922603919</v>
       </c>
       <c r="D9">
         <v>1.094996882793018</v>
       </c>
       <c r="E9">
+        <v>0.9959413754227734</v>
+      </c>
+      <c r="F9">
         <v>1.064666549357733</v>
-      </c>
-      <c r="F9">
-        <v>1.1151922603919</v>
       </c>
       <c r="G9">
         <v>1.080638498292081</v>
@@ -1238,19 +1238,19 @@
         <v>44209</v>
       </c>
       <c r="B10">
-        <v>0.9947388199924839</v>
+        <v>1.118211904329259</v>
       </c>
       <c r="C10">
-        <v>1.118211904329259</v>
+        <v>1.136590964991391</v>
       </c>
       <c r="D10">
         <v>1.079021197007481</v>
       </c>
       <c r="E10">
+        <v>0.9947388199924839</v>
+      </c>
+      <c r="F10">
         <v>1.056220306176315</v>
-      </c>
-      <c r="F10">
-        <v>1.136590964991391</v>
       </c>
       <c r="G10">
         <v>1.076956638499386</v>
@@ -1267,19 +1267,19 @@
         <v>44210</v>
       </c>
       <c r="B11">
-        <v>0.9931604659902291</v>
+        <v>1.085541383672937</v>
       </c>
       <c r="C11">
-        <v>1.085541383672937</v>
+        <v>1.132819545789948</v>
       </c>
       <c r="D11">
         <v>1.017534289276808</v>
       </c>
       <c r="E11">
+        <v>0.9931604659902291</v>
+      </c>
+      <c r="F11">
         <v>1.028506070737287</v>
-      </c>
-      <c r="F11">
-        <v>1.132819545789948</v>
       </c>
       <c r="G11">
         <v>1.051512351093442</v>
@@ -1296,19 +1296,19 @@
         <v>44211</v>
       </c>
       <c r="B12">
-        <v>0.9989477639984967</v>
+        <v>1.087277505194144</v>
       </c>
       <c r="C12">
-        <v>1.087277505194144</v>
+        <v>1.110436992703124</v>
       </c>
       <c r="D12">
         <v>1.009741271820449</v>
       </c>
       <c r="E12">
+        <v>0.9989477639984967</v>
+      </c>
+      <c r="F12">
         <v>1.02569065634348</v>
-      </c>
-      <c r="F12">
-        <v>1.110436992703124</v>
       </c>
       <c r="G12">
         <v>1.046418838011939</v>
@@ -1325,19 +1325,19 @@
         <v>44214</v>
       </c>
       <c r="B13">
-        <v>1.006012777151447</v>
+        <v>1.102710583442528</v>
       </c>
       <c r="C13">
-        <v>1.102710583442528</v>
+        <v>1.176026891858654</v>
       </c>
       <c r="D13">
         <v>1.031873441396509</v>
       </c>
       <c r="E13">
+        <v>1.006012777151447</v>
+      </c>
+      <c r="F13">
         <v>1.045046630300897</v>
-      </c>
-      <c r="F13">
-        <v>1.176026891858654</v>
       </c>
       <c r="G13">
         <v>1.072334064830007</v>
@@ -1354,19 +1354,19 @@
         <v>44215</v>
       </c>
       <c r="B14">
-        <v>1.015858699736941</v>
+        <v>1.07041606147414</v>
       </c>
       <c r="C14">
-        <v>1.07041606147414</v>
+        <v>1.157251783225383</v>
       </c>
       <c r="D14">
         <v>1.009273690773067</v>
       </c>
       <c r="E14">
+        <v>1.015858699736941</v>
+      </c>
+      <c r="F14">
         <v>1.016892486362836</v>
-      </c>
-      <c r="F14">
-        <v>1.157251783225383</v>
       </c>
       <c r="G14">
         <v>1.053938544314474</v>
@@ -1383,19 +1383,19 @@
         <v>44216</v>
       </c>
       <c r="B15">
-        <v>1.006012777151447</v>
+        <v>1.11199543075996</v>
       </c>
       <c r="C15">
-        <v>1.11199543075996</v>
+        <v>1.167582192342379</v>
       </c>
       <c r="D15">
         <v>1.02930174563591</v>
       </c>
       <c r="E15">
+        <v>1.006012777151447</v>
+      </c>
+      <c r="F15">
         <v>1.051029385887735</v>
-      </c>
-      <c r="F15">
-        <v>1.167582192342379</v>
       </c>
       <c r="G15">
         <v>1.073184306355486</v>
@@ -1412,19 +1412,19 @@
         <v>44217</v>
       </c>
       <c r="B16">
-        <v>1.006012777151447</v>
+        <v>1.141350292764891</v>
       </c>
       <c r="C16">
-        <v>1.141350292764891</v>
+        <v>1.168320078707879</v>
       </c>
       <c r="D16">
         <v>1.039043017456359</v>
       </c>
       <c r="E16">
+        <v>1.006012777151447</v>
+      </c>
+      <c r="F16">
         <v>1.095284180890375</v>
-      </c>
-      <c r="F16">
-        <v>1.168320078707879</v>
       </c>
       <c r="G16">
         <v>1.09000206939419</v>
@@ -1441,19 +1441,19 @@
         <v>44218</v>
       </c>
       <c r="B17">
-        <v>0.9891770011273957</v>
+        <v>1.169311773426793</v>
       </c>
       <c r="C17">
-        <v>1.169311773426793</v>
+        <v>1.154054275641551</v>
       </c>
       <c r="D17">
         <v>1.041536783042394</v>
       </c>
       <c r="E17">
+        <v>0.9891770011273957</v>
+      </c>
+      <c r="F17">
         <v>1.131180714411402</v>
-      </c>
-      <c r="F17">
-        <v>1.154054275641551</v>
       </c>
       <c r="G17">
         <v>1.097052109529908</v>
@@ -1470,19 +1470,19 @@
         <v>44221</v>
       </c>
       <c r="B18">
-        <v>0.978053363397219</v>
+        <v>1.170550022878105</v>
       </c>
       <c r="C18">
-        <v>1.170550022878105</v>
+        <v>1.139214560957613</v>
       </c>
       <c r="D18">
         <v>1.042939526184539</v>
       </c>
       <c r="E18">
+        <v>0.978053363397219</v>
+      </c>
+      <c r="F18">
         <v>1.131444659510822</v>
-      </c>
-      <c r="F18">
-        <v>1.139214560957613</v>
       </c>
       <c r="G18">
         <v>1.09244042658566</v>
@@ -1499,19 +1499,19 @@
         <v>44222</v>
       </c>
       <c r="B19">
-        <v>0.9754979331078543</v>
+        <v>1.143111330235736</v>
       </c>
       <c r="C19">
-        <v>1.143111330235736</v>
+        <v>1.113634500286956</v>
       </c>
       <c r="D19">
         <v>0.9736596009975064</v>
       </c>
       <c r="E19">
+        <v>0.9754979331078543</v>
+      </c>
+      <c r="F19">
         <v>1.11516804504663</v>
-      </c>
-      <c r="F19">
-        <v>1.113634500286956</v>
       </c>
       <c r="G19">
         <v>1.064214281934937</v>
@@ -1528,19 +1528,19 @@
         <v>44223</v>
       </c>
       <c r="B20">
-        <v>0.9782788425403984</v>
+        <v>1.173343402505447</v>
       </c>
       <c r="C20">
-        <v>1.173343402505447</v>
+        <v>1.107731409362958</v>
       </c>
       <c r="D20">
         <v>0.971243765586035</v>
       </c>
       <c r="E20">
+        <v>0.9782788425403984</v>
+      </c>
+      <c r="F20">
         <v>1.159246876649657</v>
-      </c>
-      <c r="F20">
-        <v>1.107731409362958</v>
       </c>
       <c r="G20">
         <v>1.077968859328899</v>
@@ -1557,19 +1557,19 @@
         <v>44224</v>
       </c>
       <c r="B21">
-        <v>0.9676813228109734</v>
+        <v>1.114061617230356</v>
       </c>
       <c r="C21">
-        <v>1.114061617230356</v>
+        <v>1.06075264409281</v>
       </c>
       <c r="D21">
         <v>0.9569046134663343</v>
       </c>
       <c r="E21">
+        <v>0.9676813228109734</v>
+      </c>
+      <c r="F21">
         <v>1.100651064578567</v>
-      </c>
-      <c r="F21">
-        <v>1.06075264409281</v>
       </c>
       <c r="G21">
         <v>1.040010252435808</v>
@@ -1586,19 +1586,19 @@
         <v>44225</v>
       </c>
       <c r="B22">
-        <v>0.9670048853814355</v>
+        <v>1.097880501839255</v>
       </c>
       <c r="C22">
-        <v>1.097880501839255</v>
+        <v>1.03976387636304</v>
       </c>
       <c r="D22">
         <v>0.9264339152119702</v>
       </c>
       <c r="E22">
+        <v>0.9670048853814355</v>
+      </c>
+      <c r="F22">
         <v>1.077951786028506</v>
-      </c>
-      <c r="F22">
-        <v>1.03976387636304</v>
       </c>
       <c r="G22">
         <v>1.021806992964841</v>
@@ -1615,19 +1615,19 @@
         <v>44228</v>
       </c>
       <c r="B23">
-        <v>0.976249530251785</v>
+        <v>1.101091952976316</v>
       </c>
       <c r="C23">
-        <v>1.101091952976316</v>
+        <v>1.045502992539149</v>
       </c>
       <c r="D23">
         <v>0.9218360349127184</v>
       </c>
       <c r="E23">
+        <v>0.976249530251785</v>
+      </c>
+      <c r="F23">
         <v>1.048917825092381</v>
-      </c>
-      <c r="F23">
-        <v>1.045502992539149</v>
       </c>
       <c r="G23">
         <v>1.01871966715447</v>
@@ -1644,19 +1644,19 @@
         <v>44229</v>
       </c>
       <c r="B24">
-        <v>0.9722660653889516</v>
+        <v>1.137013328468826</v>
       </c>
       <c r="C24">
-        <v>1.137013328468826</v>
+        <v>1.054603591046979</v>
       </c>
       <c r="D24">
         <v>0.9368765586034913</v>
       </c>
       <c r="E24">
+        <v>0.9722660653889516</v>
+      </c>
+      <c r="F24">
         <v>1.067569945451346</v>
-      </c>
-      <c r="F24">
-        <v>1.054603591046979</v>
       </c>
       <c r="G24">
         <v>1.033665897791919</v>
@@ -1673,19 +1673,19 @@
         <v>44230</v>
       </c>
       <c r="B25">
-        <v>0.9685832393836903</v>
+        <v>1.143360464903067</v>
       </c>
       <c r="C25">
-        <v>1.143360464903067</v>
+        <v>1.015741575797327</v>
       </c>
       <c r="D25">
         <v>0.9064058603491273</v>
       </c>
       <c r="E25">
+        <v>0.9685832393836903</v>
+      </c>
+      <c r="F25">
         <v>1.064666549357733</v>
-      </c>
-      <c r="F25">
-        <v>1.015741575797327</v>
       </c>
       <c r="G25">
         <v>1.019751537958189</v>
@@ -1702,19 +1702,19 @@
         <v>44231</v>
       </c>
       <c r="B26">
-        <v>0.9662532882375048</v>
+        <v>1.139734654198959</v>
       </c>
       <c r="C26">
-        <v>1.139734654198959</v>
+        <v>1.014101828318439</v>
       </c>
       <c r="D26">
         <v>0.8935473815461348</v>
       </c>
       <c r="E26">
+        <v>0.9662532882375048</v>
+      </c>
+      <c r="F26">
         <v>1.060355446067218</v>
-      </c>
-      <c r="F26">
-        <v>1.014101828318439</v>
       </c>
       <c r="G26">
         <v>1.014798519673651</v>
@@ -1731,19 +1731,19 @@
         <v>44232</v>
       </c>
       <c r="B27">
-        <v>0.9809845922585494</v>
+        <v>1.122197425865832</v>
       </c>
       <c r="C27">
-        <v>1.122197425865832</v>
+        <v>0.9888497171435598</v>
       </c>
       <c r="D27">
         <v>0.8753117206982545</v>
       </c>
       <c r="E27">
+        <v>0.9809845922585494</v>
+      </c>
+      <c r="F27">
         <v>1.05806792187225</v>
-      </c>
-      <c r="F27">
-        <v>0.9888497171435598</v>
       </c>
       <c r="G27">
         <v>1.005082275567689</v>
@@ -1760,19 +1760,19 @@
         <v>44235</v>
       </c>
       <c r="B28">
-        <v>0.981510710259301</v>
+        <v>1.160187383831868</v>
       </c>
       <c r="C28">
-        <v>1.160187383831868</v>
+        <v>1.017709272771993</v>
       </c>
       <c r="D28">
         <v>0.8789744389027432</v>
       </c>
       <c r="E28">
+        <v>0.981510710259301</v>
+      </c>
+      <c r="F28">
         <v>1.059827555868379</v>
-      </c>
-      <c r="F28">
-        <v>1.017709272771993</v>
       </c>
       <c r="G28">
         <v>1.019641872326857</v>
@@ -1789,19 +1789,19 @@
         <v>44236</v>
       </c>
       <c r="B29">
-        <v>0.9857196542653138</v>
+        <v>1.196258304680301</v>
       </c>
       <c r="C29">
-        <v>1.196258304680301</v>
+        <v>1.032057063212265</v>
       </c>
       <c r="D29">
         <v>0.9283821695760599</v>
       </c>
       <c r="E29">
+        <v>0.9857196542653138</v>
+      </c>
+      <c r="F29">
         <v>1.096427942987859</v>
-      </c>
-      <c r="F29">
-        <v>1.032057063212265</v>
       </c>
       <c r="G29">
         <v>1.04776902694436</v>
@@ -1818,19 +1818,19 @@
         <v>44237</v>
       </c>
       <c r="B30">
-        <v>0.9901540774145058</v>
+        <v>1.214785032647653</v>
       </c>
       <c r="C30">
-        <v>1.214785032647653</v>
+        <v>1.040091825858818</v>
       </c>
       <c r="D30">
         <v>0.9240960099750624</v>
       </c>
       <c r="E30">
+        <v>0.9901540774145058</v>
+      </c>
+      <c r="F30">
         <v>1.123174379729016</v>
-      </c>
-      <c r="F30">
-        <v>1.040091825858818</v>
       </c>
       <c r="G30">
         <v>1.058460265125011</v>
@@ -1847,19 +1847,19 @@
         <v>44245</v>
       </c>
       <c r="B31">
-        <v>1.010597519729425</v>
+        <v>1.194476137689634</v>
       </c>
       <c r="C31">
-        <v>1.194476137689634</v>
+        <v>1.065507911781586</v>
       </c>
       <c r="D31">
         <v>0.9183291770573566</v>
       </c>
       <c r="E31">
+        <v>1.010597519729425</v>
+      </c>
+      <c r="F31">
         <v>1.114464191448179</v>
-      </c>
-      <c r="F31">
-        <v>1.065507911781586</v>
       </c>
       <c r="G31">
         <v>1.060674987541236</v>
@@ -1876,19 +1876,19 @@
         <v>44246</v>
       </c>
       <c r="B32">
-        <v>1.027583615182262</v>
+        <v>1.170724968350102</v>
       </c>
       <c r="C32">
-        <v>1.170724968350102</v>
+        <v>1.060342707223088</v>
       </c>
       <c r="D32">
         <v>0.921524314214464</v>
       </c>
       <c r="E32">
+        <v>1.027583615182262</v>
+      </c>
+      <c r="F32">
         <v>1.093612528594053</v>
-      </c>
-      <c r="F32">
-        <v>1.060342707223088</v>
       </c>
       <c r="G32">
         <v>1.054757626712794</v>
@@ -1905,19 +1905,19 @@
         <v>44249</v>
       </c>
       <c r="B33">
-        <v>1.036226982337467</v>
+        <v>1.126369612185044</v>
       </c>
       <c r="C33">
-        <v>1.126369612185044</v>
+        <v>1.033122899073543</v>
       </c>
       <c r="D33">
         <v>0.8913653366583542</v>
       </c>
       <c r="E33">
+        <v>1.036226982337467</v>
+      </c>
+      <c r="F33">
         <v>1.058683793770896</v>
-      </c>
-      <c r="F33">
-        <v>1.033122899073543</v>
       </c>
       <c r="G33">
         <v>1.029153724805061</v>
@@ -1934,19 +1934,19 @@
         <v>44250</v>
       </c>
       <c r="B34">
-        <v>1.027508455467869</v>
+        <v>1.125951491017229</v>
       </c>
       <c r="C34">
-        <v>1.125951491017229</v>
+        <v>1.021480691973436</v>
       </c>
       <c r="D34">
         <v>0.9158354114713217</v>
       </c>
       <c r="E34">
+        <v>1.027508455467869</v>
+      </c>
+      <c r="F34">
         <v>1.04944571529122</v>
-      </c>
-      <c r="F34">
-        <v>1.021480691973436</v>
       </c>
       <c r="G34">
         <v>1.028044353044215</v>
@@ -1963,19 +1963,19 @@
         <v>44251</v>
       </c>
       <c r="B35">
-        <v>1.025779782036828</v>
+        <v>1.080099750203639</v>
       </c>
       <c r="C35">
-        <v>1.080099750203639</v>
+        <v>1.029597441993933</v>
       </c>
       <c r="D35">
         <v>0.9159912718204489</v>
       </c>
       <c r="E35">
+        <v>1.025779782036828</v>
+      </c>
+      <c r="F35">
         <v>1.015396797466127</v>
-      </c>
-      <c r="F35">
-        <v>1.029597441993933</v>
       </c>
       <c r="G35">
         <v>1.013373008704195</v>
@@ -1992,19 +1992,19 @@
         <v>44252</v>
       </c>
       <c r="B36">
-        <v>1.049004133784291</v>
+        <v>1.071389372569089</v>
       </c>
       <c r="C36">
-        <v>1.071389372569089</v>
+        <v>1.02098876772977</v>
       </c>
       <c r="D36">
         <v>0.9336814214463841</v>
       </c>
       <c r="E36">
+        <v>1.049004133784291</v>
+      </c>
+      <c r="F36">
         <v>1.010909730775999</v>
-      </c>
-      <c r="F36">
-        <v>1.02098876772977</v>
       </c>
       <c r="G36">
         <v>1.017194685261107</v>
@@ -2021,22 +2021,22 @@
         <v>44253</v>
       </c>
       <c r="B37">
-        <v>1.028335212326193</v>
+        <v>1.047416243955229</v>
       </c>
       <c r="C37">
-        <v>1.047416243955229</v>
+        <v>1.005985078297942</v>
       </c>
       <c r="D37">
         <v>0.9023534912718205</v>
       </c>
       <c r="E37">
+        <v>1.028335212326193</v>
+      </c>
+      <c r="F37">
         <v>1.004487066690128</v>
       </c>
-      <c r="F37">
-        <v>1.005985078297942</v>
-      </c>
       <c r="G37">
-        <v>0.9977154185082627</v>
+        <v>0.9977154185082626</v>
       </c>
       <c r="H37">
         <v>0.9995665223311676</v>
@@ -2050,19 +2050,19 @@
         <v>44256</v>
       </c>
       <c r="B38">
-        <v>1.043517474633596</v>
+        <v>1.095415374640601</v>
       </c>
       <c r="C38">
-        <v>1.095415374640601</v>
+        <v>1.043125358694761</v>
       </c>
       <c r="D38">
         <v>0.9193422693266834</v>
       </c>
       <c r="E38">
+        <v>1.043517474633596</v>
+      </c>
+      <c r="F38">
         <v>1.029737814534577</v>
-      </c>
-      <c r="F38">
-        <v>1.043125358694761</v>
       </c>
       <c r="G38">
         <v>1.026227658366044</v>
@@ -2079,19 +2079,19 @@
         <v>44257</v>
       </c>
       <c r="B39">
-        <v>1.036452461480646</v>
+        <v>1.096756975004088</v>
       </c>
       <c r="C39">
-        <v>1.096756975004088</v>
+        <v>1.054111666803312</v>
       </c>
       <c r="D39">
         <v>0.9259663341645885</v>
       </c>
       <c r="E39">
+        <v>1.036452461480646</v>
+      </c>
+      <c r="F39">
         <v>1.020675699454513</v>
-      </c>
-      <c r="F39">
-        <v>1.054111666803312</v>
       </c>
       <c r="G39">
         <v>1.02679262738143</v>
@@ -2108,19 +2108,19 @@
         <v>44258</v>
       </c>
       <c r="B40">
-        <v>1.059827132656896</v>
+        <v>1.092751255036991</v>
       </c>
       <c r="C40">
-        <v>1.092751255036991</v>
+        <v>1.05517750266459</v>
       </c>
       <c r="D40">
         <v>0.9240960099750624</v>
       </c>
       <c r="E40">
+        <v>1.059827132656896</v>
+      </c>
+      <c r="F40">
         <v>1.014868907267288</v>
-      </c>
-      <c r="F40">
-        <v>1.05517750266459</v>
       </c>
       <c r="G40">
         <v>1.029344161520166</v>
@@ -2137,19 +2137,19 @@
         <v>44259</v>
       </c>
       <c r="B41">
-        <v>1.061255167230365</v>
+        <v>1.022998650553657</v>
       </c>
       <c r="C41">
-        <v>1.022998650553657</v>
+        <v>1.017791260145938</v>
       </c>
       <c r="D41">
         <v>0.9117051122194514</v>
       </c>
       <c r="E41">
+        <v>1.061255167230365</v>
+      </c>
+      <c r="F41">
         <v>0.9515220834066513</v>
-      </c>
-      <c r="F41">
-        <v>1.017791260145938</v>
       </c>
       <c r="G41">
         <v>0.9930544547112125</v>
@@ -2166,19 +2166,19 @@
         <v>44260</v>
       </c>
       <c r="B42">
-        <v>1.04629838406614</v>
+        <v>1.024189476523347</v>
       </c>
       <c r="C42">
-        <v>1.024189476523347</v>
+        <v>1.008936623759941</v>
       </c>
       <c r="D42">
         <v>0.892534289276808</v>
       </c>
       <c r="E42">
+        <v>1.04629838406614</v>
+      </c>
+      <c r="F42">
         <v>0.9544254795002639</v>
-      </c>
-      <c r="F42">
-        <v>1.008936623759941</v>
       </c>
       <c r="G42">
         <v>0.9852768506253</v>
@@ -2195,22 +2195,22 @@
         <v>44263</v>
       </c>
       <c r="B43">
-        <v>1.040962044344232</v>
+        <v>0.9697246010415811</v>
       </c>
       <c r="C43">
-        <v>0.9697246010415811</v>
+        <v>0.9645814544560138</v>
       </c>
       <c r="D43">
         <v>0.8323721945137158</v>
       </c>
       <c r="E43">
+        <v>1.040962044344232</v>
+      </c>
+      <c r="F43">
         <v>0.902692240014077</v>
       </c>
-      <c r="F43">
-        <v>0.9645814544560138</v>
-      </c>
       <c r="G43">
-        <v>0.9420665068739239</v>
+        <v>0.9420665068739238</v>
       </c>
       <c r="H43">
         <v>0.9826137761087841</v>
@@ -2224,19 +2224,19 @@
         <v>44264</v>
       </c>
       <c r="B44">
-        <v>1.030289364900413</v>
+        <v>0.9405647215503586</v>
       </c>
       <c r="C44">
-        <v>0.9405647215503586</v>
+        <v>0.9153070427154218</v>
       </c>
       <c r="D44">
         <v>0.7886533665835412</v>
       </c>
       <c r="E44">
+        <v>1.030289364900413</v>
+      </c>
+      <c r="F44">
         <v>0.872514516980468</v>
-      </c>
-      <c r="F44">
-        <v>0.9153070427154218</v>
       </c>
       <c r="G44">
         <v>0.9094658025460407</v>
@@ -2253,22 +2253,22 @@
         <v>44265</v>
       </c>
       <c r="B45">
-        <v>1.02314919203307</v>
+        <v>0.9575414961981824</v>
       </c>
       <c r="C45">
-        <v>0.9575414961981824</v>
+        <v>0.9161269164548659</v>
       </c>
       <c r="D45">
         <v>0.7831203241895262</v>
       </c>
       <c r="E45">
+        <v>1.02314919203307</v>
+      </c>
+      <c r="F45">
         <v>0.8790251627661446</v>
       </c>
-      <c r="F45">
-        <v>0.9161269164548659</v>
-      </c>
       <c r="G45">
-        <v>0.9117926183283578</v>
+        <v>0.911792618328358</v>
       </c>
       <c r="H45">
         <v>0.952121135020441</v>
@@ -2282,19 +2282,19 @@
         <v>44266</v>
       </c>
       <c r="B46">
-        <v>1.048778654641112</v>
+        <v>0.9878844301670798</v>
       </c>
       <c r="C46">
-        <v>0.9878844301670798</v>
+        <v>0.9453144215790769</v>
       </c>
       <c r="D46">
         <v>0.7966801745635911</v>
       </c>
       <c r="E46">
+        <v>1.048778654641112</v>
+      </c>
+      <c r="F46">
         <v>0.9113144465951082</v>
-      </c>
-      <c r="F46">
-        <v>0.9453144215790769</v>
       </c>
       <c r="G46">
         <v>0.9379944255091938</v>
@@ -2311,19 +2311,19 @@
         <v>44267</v>
       </c>
       <c r="B47">
-        <v>1.069297256670425</v>
+        <v>1.003011366253994</v>
       </c>
       <c r="C47">
-        <v>1.003011366253994</v>
+        <v>0.9303107321472494</v>
       </c>
       <c r="D47">
         <v>0.7906795511221946</v>
       </c>
       <c r="E47">
+        <v>1.069297256670425</v>
+      </c>
+      <c r="F47">
         <v>0.9279429878585254</v>
-      </c>
-      <c r="F47">
-        <v>0.9303107321472494</v>
       </c>
       <c r="G47">
         <v>0.9442483788104776</v>
@@ -2340,19 +2340,19 @@
         <v>44270</v>
       </c>
       <c r="B48">
-        <v>1.076061630965802</v>
+        <v>0.957573314623156</v>
       </c>
       <c r="C48">
-        <v>0.957573314623156</v>
+        <v>0.8900549315405427</v>
       </c>
       <c r="D48">
         <v>0.7855361596009975</v>
       </c>
       <c r="E48">
+        <v>1.076061630965802</v>
+      </c>
+      <c r="F48">
         <v>0.891870490937885</v>
-      </c>
-      <c r="F48">
-        <v>0.8900549315405427</v>
       </c>
       <c r="G48">
         <v>0.9202193055336767</v>
@@ -2369,19 +2369,19 @@
         <v>44271</v>
       </c>
       <c r="B49">
-        <v>1.079669297256671</v>
+        <v>0.9641298964915476</v>
       </c>
       <c r="C49">
-        <v>0.9641298964915476</v>
+        <v>0.8844797901123227</v>
       </c>
       <c r="D49">
         <v>0.7842113466334165</v>
       </c>
       <c r="E49">
+        <v>1.079669297256671</v>
+      </c>
+      <c r="F49">
         <v>0.8978532465247228</v>
-      </c>
-      <c r="F49">
-        <v>0.8844797901123227</v>
       </c>
       <c r="G49">
         <v>0.9220687154037361</v>
@@ -2398,19 +2398,19 @@
         <v>44272</v>
       </c>
       <c r="B50">
-        <v>1.072904922961293</v>
+        <v>0.9797492298432793</v>
       </c>
       <c r="C50">
-        <v>0.9797492298432793</v>
+        <v>0.9112076740182011</v>
       </c>
       <c r="D50">
         <v>0.7973815461346635</v>
       </c>
       <c r="E50">
+        <v>1.072904922961293</v>
+      </c>
+      <c r="F50">
         <v>0.9011965511173675</v>
-      </c>
-      <c r="F50">
-        <v>0.9112076740182011</v>
       </c>
       <c r="G50">
         <v>0.9324879848149609</v>
@@ -2427,19 +2427,19 @@
         <v>44273</v>
       </c>
       <c r="B51">
-        <v>1.074859075535513</v>
+        <v>0.9930284130093138</v>
       </c>
       <c r="C51">
-        <v>0.9930284130093138</v>
+        <v>0.9121095351315898</v>
       </c>
       <c r="D51">
         <v>0.8066552369077307</v>
       </c>
       <c r="E51">
+        <v>1.074859075535513</v>
+      </c>
+      <c r="F51">
         <v>0.9162414217842689</v>
-      </c>
-      <c r="F51">
-        <v>0.9121095351315898</v>
       </c>
       <c r="G51">
         <v>0.9405787364736833</v>
@@ -2456,19 +2456,19 @@
         <v>44274</v>
       </c>
       <c r="B52">
-        <v>1.061706125516723</v>
+        <v>0.9594343262556518</v>
       </c>
       <c r="C52">
-        <v>0.9594343262556518</v>
+        <v>0.9044847093547593</v>
       </c>
       <c r="D52">
         <v>0.8120324189526186</v>
       </c>
       <c r="E52">
+        <v>1.061706125516723</v>
+      </c>
+      <c r="F52">
         <v>0.8931022347351749</v>
-      </c>
-      <c r="F52">
-        <v>0.9044847093547593</v>
       </c>
       <c r="G52">
         <v>0.9261519629629855</v>
@@ -2485,19 +2485,19 @@
         <v>44277</v>
       </c>
       <c r="B53">
-        <v>1.073506200676437</v>
+        <v>0.9743116683378479</v>
       </c>
       <c r="C53">
-        <v>0.9743116683378479</v>
+        <v>0.9064524063294251</v>
       </c>
       <c r="D53">
         <v>0.8185006234413966</v>
       </c>
       <c r="E53">
+        <v>1.073506200676437</v>
+      </c>
+      <c r="F53">
         <v>0.9136019707900757</v>
-      </c>
-      <c r="F53">
-        <v>0.9064524063294251</v>
       </c>
       <c r="G53">
         <v>0.9372745739150365</v>
@@ -2514,19 +2514,19 @@
         <v>44278</v>
       </c>
       <c r="B54">
-        <v>1.06042841037204</v>
+        <v>0.9522220340594204</v>
       </c>
       <c r="C54">
-        <v>0.9522220340594204</v>
+        <v>0.9062884315815364</v>
       </c>
       <c r="D54">
         <v>0.8129675810473815</v>
       </c>
       <c r="E54">
+        <v>1.06042841037204</v>
+      </c>
+      <c r="F54">
         <v>0.8989970086222066</v>
-      </c>
-      <c r="F54">
-        <v>0.9062884315815364</v>
       </c>
       <c r="G54">
         <v>0.9261806931365171</v>
@@ -2543,19 +2543,19 @@
         <v>44279</v>
       </c>
       <c r="B55">
-        <v>1.047200300638857</v>
+        <v>0.9211961771261079</v>
       </c>
       <c r="C55">
-        <v>0.9211961771261079</v>
+        <v>0.8854636385996557</v>
       </c>
       <c r="D55">
         <v>0.7979270573566085</v>
       </c>
       <c r="E55">
+        <v>1.047200300638857</v>
+      </c>
+      <c r="F55">
         <v>0.8793770895653704</v>
-      </c>
-      <c r="F55">
-        <v>0.8854636385996557</v>
       </c>
       <c r="G55">
         <v>0.90623285265732</v>
@@ -2572,22 +2572,22 @@
         <v>44280</v>
       </c>
       <c r="B56">
-        <v>1.044644870349493</v>
+        <v>0.9254323106583666</v>
       </c>
       <c r="C56">
-        <v>0.9254323106583666</v>
+        <v>0.8933344264983192</v>
       </c>
       <c r="D56">
         <v>0.8013559850374066</v>
       </c>
       <c r="E56">
+        <v>1.044644870349493</v>
+      </c>
+      <c r="F56">
         <v>0.8773535104698222</v>
       </c>
-      <c r="F56">
-        <v>0.8933344264983192</v>
-      </c>
       <c r="G56">
-        <v>0.9084242206026816</v>
+        <v>0.9084242206026815</v>
       </c>
       <c r="H56">
         <v>0.9670651205963146</v>
@@ -2601,19 +2601,19 @@
         <v>44281</v>
       </c>
       <c r="B57">
-        <v>1.052987598647125</v>
+        <v>0.966795915517327</v>
       </c>
       <c r="C57">
-        <v>0.966795915517327</v>
+        <v>0.9111256866442567</v>
       </c>
       <c r="D57">
         <v>0.8143703241895262</v>
       </c>
       <c r="E57">
+        <v>1.052987598647125</v>
+      </c>
+      <c r="F57">
         <v>0.909466830899173</v>
-      </c>
-      <c r="F57">
-        <v>0.9111256866442567</v>
       </c>
       <c r="G57">
         <v>0.9309492711794817</v>
@@ -2630,19 +2630,19 @@
         <v>44284</v>
       </c>
       <c r="B58">
-        <v>1.072003006388576</v>
+        <v>0.9613277397957485</v>
       </c>
       <c r="C58">
-        <v>0.9613277397957485</v>
+        <v>0.9156349922111995</v>
       </c>
       <c r="D58">
         <v>0.8287874064837905</v>
       </c>
       <c r="E58">
+        <v>1.072003006388576</v>
+      </c>
+      <c r="F58">
         <v>0.9016364596163997</v>
-      </c>
-      <c r="F58">
-        <v>0.9156349922111995</v>
       </c>
       <c r="G58">
         <v>0.9358779208991428</v>
@@ -2659,22 +2659,22 @@
         <v>44285</v>
       </c>
       <c r="B59">
-        <v>1.068846298384066</v>
+        <v>0.9855462042326004</v>
       </c>
       <c r="C59">
-        <v>0.9855462042326004</v>
+        <v>0.9175207018119209</v>
       </c>
       <c r="D59">
         <v>0.8463996259351622</v>
       </c>
       <c r="E59">
+        <v>1.068846298384066</v>
+      </c>
+      <c r="F59">
         <v>0.9294386767552348</v>
       </c>
-      <c r="F59">
-        <v>0.9175207018119209</v>
-      </c>
       <c r="G59">
-        <v>0.9495503014237968</v>
+        <v>0.9495503014237969</v>
       </c>
       <c r="H59">
         <v>0.9863752942857905</v>
@@ -2688,22 +2688,22 @@
         <v>44286</v>
       </c>
       <c r="B60">
-        <v>1.06869597895528</v>
+        <v>0.9740848425701178</v>
       </c>
       <c r="C60">
-        <v>0.9740848425701178</v>
+        <v>0.9153070427154218</v>
       </c>
       <c r="D60">
         <v>0.8123441396508729</v>
       </c>
       <c r="E60">
+        <v>1.06869597895528</v>
+      </c>
+      <c r="F60">
         <v>0.9236318845680098</v>
       </c>
-      <c r="F60">
-        <v>0.9153070427154218</v>
-      </c>
       <c r="G60">
-        <v>0.9388127776919406</v>
+        <v>0.9388127776919405</v>
       </c>
       <c r="H60">
         <v>0.9822462624330348</v>
@@ -2717,22 +2717,22 @@
         <v>44287</v>
       </c>
       <c r="B61">
-        <v>1.074332957534761</v>
+        <v>0.987651620598789</v>
       </c>
       <c r="C61">
-        <v>0.987651620598789</v>
+        <v>0.9526112978601294</v>
       </c>
       <c r="D61">
         <v>0.8189682044887781</v>
       </c>
       <c r="E61">
+        <v>1.074332957534761</v>
+      </c>
+      <c r="F61">
         <v>0.9321661094492346</v>
       </c>
-      <c r="F61">
-        <v>0.9526112978601294</v>
-      </c>
       <c r="G61">
-        <v>0.9531460379863386</v>
+        <v>0.9531460379863385</v>
       </c>
       <c r="H61">
         <v>0.9912911823417532</v>
@@ -2746,22 +2746,22 @@
         <v>44288</v>
       </c>
       <c r="B62">
-        <v>1.064261555806088</v>
+        <v>0.9912429189262187</v>
       </c>
       <c r="C62">
-        <v>0.9912429189262187</v>
+        <v>1.001721734852833</v>
       </c>
       <c r="D62">
         <v>0.8223192019950125</v>
       </c>
       <c r="E62">
+        <v>1.064261555806088</v>
+      </c>
+      <c r="F62">
         <v>0.929878585254267</v>
       </c>
-      <c r="F62">
-        <v>1.001721734852833</v>
-      </c>
       <c r="G62">
-        <v>0.9618847993668839</v>
+        <v>0.9618847993668838</v>
       </c>
       <c r="H62">
         <v>0.9936391863812625</v>
@@ -2775,19 +2775,19 @@
         <v>44292</v>
       </c>
       <c r="B63">
-        <v>1.064186396091695</v>
+        <v>0.9972846580704282</v>
       </c>
       <c r="C63">
-        <v>0.9972846580704282</v>
+        <v>0.9954906944330573</v>
       </c>
       <c r="D63">
         <v>0.8305018703241897</v>
       </c>
       <c r="E63">
+        <v>1.064186396091695</v>
+      </c>
+      <c r="F63">
         <v>0.9511701566074255</v>
-      </c>
-      <c r="F63">
-        <v>0.9954906944330573</v>
       </c>
       <c r="G63">
         <v>0.9677267551053591</v>
@@ -2804,19 +2804,19 @@
         <v>44293</v>
       </c>
       <c r="B64">
-        <v>1.074934235249906</v>
+        <v>0.9818758502164342</v>
       </c>
       <c r="C64">
-        <v>0.9818758502164342</v>
+        <v>0.995244732311224</v>
       </c>
       <c r="D64">
         <v>0.8252805486284289</v>
       </c>
       <c r="E64">
+        <v>1.074934235249906</v>
+      </c>
+      <c r="F64">
         <v>0.934453633644202</v>
-      </c>
-      <c r="F64">
-        <v>0.995244732311224</v>
       </c>
       <c r="G64">
         <v>0.9623578000100391</v>
@@ -2833,22 +2833,22 @@
         <v>44294</v>
       </c>
       <c r="B65">
-        <v>1.072754603532507</v>
+        <v>0.9747396466377068</v>
       </c>
       <c r="C65">
-        <v>0.9747396466377068</v>
+        <v>0.9926211363450029</v>
       </c>
       <c r="D65">
         <v>0.823176433915212</v>
       </c>
       <c r="E65">
+        <v>1.072754603532507</v>
+      </c>
+      <c r="F65">
         <v>0.9263593172620094</v>
       </c>
-      <c r="F65">
-        <v>0.9926211363450029</v>
-      </c>
       <c r="G65">
-        <v>0.9579302275384876</v>
+        <v>0.9579302275384877</v>
       </c>
       <c r="H65">
         <v>0.9983728881706143</v>
@@ -2862,22 +2862,22 @@
         <v>44295</v>
       </c>
       <c r="B66">
-        <v>1.070349492671928</v>
+        <v>0.9524671215919324</v>
       </c>
       <c r="C66">
-        <v>0.9524671215919324</v>
+        <v>0.9840944494547839</v>
       </c>
       <c r="D66">
         <v>0.8278522443890275</v>
       </c>
       <c r="E66">
+        <v>1.070349492671928</v>
+      </c>
+      <c r="F66">
         <v>0.9106105929966566</v>
       </c>
-      <c r="F66">
-        <v>0.9840944494547839</v>
-      </c>
       <c r="G66">
-        <v>0.9490747802208656</v>
+        <v>0.9490747802208657</v>
       </c>
       <c r="H66">
         <v>0.9949945893819959</v>
@@ -2891,19 +2891,19 @@
         <v>44298</v>
       </c>
       <c r="B67">
-        <v>1.073055242390079</v>
+        <v>0.9278043537561812</v>
       </c>
       <c r="C67">
-        <v>0.9278043537561812</v>
+        <v>0.9668771009264573</v>
       </c>
       <c r="D67">
         <v>0.8005766832917707</v>
       </c>
       <c r="E67">
+        <v>1.073055242390079</v>
+      </c>
+      <c r="F67">
         <v>0.8857997536512404</v>
-      </c>
-      <c r="F67">
-        <v>0.9668771009264573</v>
       </c>
       <c r="G67">
         <v>0.9308226268031459</v>
@@ -2920,19 +2920,19 @@
         <v>44299</v>
       </c>
       <c r="B68">
-        <v>1.065689590379556</v>
+        <v>0.9331816427476655</v>
       </c>
       <c r="C68">
-        <v>0.9331816427476655</v>
+        <v>0.9604000983848487</v>
       </c>
       <c r="D68">
         <v>0.7983167082294265</v>
       </c>
       <c r="E68">
+        <v>1.065689590379556</v>
+      </c>
+      <c r="F68">
         <v>0.8802569065634347</v>
-      </c>
-      <c r="F68">
-        <v>0.9604000983848487</v>
       </c>
       <c r="G68">
         <v>0.9275689892609864</v>
@@ -2949,19 +2949,19 @@
         <v>44300</v>
       </c>
       <c r="B69">
-        <v>1.070499812100714</v>
+        <v>0.9573434845406216</v>
       </c>
       <c r="C69">
-        <v>0.9573434845406216</v>
+        <v>0.9643354923341805</v>
       </c>
       <c r="D69">
         <v>0.810240024937656</v>
       </c>
       <c r="E69">
+        <v>1.070499812100714</v>
+      </c>
+      <c r="F69">
         <v>0.8934541615344008</v>
-      </c>
-      <c r="F69">
-        <v>0.9643354923341805</v>
       </c>
       <c r="G69">
         <v>0.9391745950895146</v>
@@ -2978,19 +2978,19 @@
         <v>44301</v>
       </c>
       <c r="B70">
-        <v>1.07087561067268</v>
+        <v>0.9588850704709834</v>
       </c>
       <c r="C70">
-        <v>0.9588850704709834</v>
+        <v>0.9583504140362384</v>
       </c>
       <c r="D70">
         <v>0.8079800498753117</v>
       </c>
       <c r="E70">
+        <v>1.07087561067268</v>
+      </c>
+      <c r="F70">
         <v>0.8989090269224002</v>
-      </c>
-      <c r="F70">
-        <v>0.9583504140362384</v>
       </c>
       <c r="G70">
         <v>0.9390000343955227</v>
@@ -3007,22 +3007,22 @@
         <v>44302</v>
       </c>
       <c r="B71">
-        <v>1.086208192408869</v>
+        <v>0.9539997194069288</v>
       </c>
       <c r="C71">
-        <v>0.9539997194069288</v>
+        <v>0.9530212347298517</v>
       </c>
       <c r="D71">
         <v>0.8092269326683292</v>
       </c>
       <c r="E71">
+        <v>1.086208192408869</v>
+      </c>
+      <c r="F71">
         <v>0.8948618687313038</v>
       </c>
-      <c r="F71">
-        <v>0.9530212347298517</v>
-      </c>
       <c r="G71">
-        <v>0.9394635895890566</v>
+        <v>0.9394635895890565</v>
       </c>
       <c r="H71">
         <v>0.9956777878817863</v>
@@ -3036,22 +3036,22 @@
         <v>44305</v>
       </c>
       <c r="B72">
-        <v>1.083276963547539</v>
+        <v>0.9988562623197857</v>
       </c>
       <c r="C72">
-        <v>0.9988562623197857</v>
+        <v>0.9767975731737313</v>
       </c>
       <c r="D72">
         <v>0.820682668329177</v>
       </c>
       <c r="E72">
+        <v>1.083276963547539</v>
+      </c>
+      <c r="F72">
         <v>0.9245996832658806</v>
       </c>
-      <c r="F72">
-        <v>0.9767975731737313</v>
-      </c>
       <c r="G72">
-        <v>0.9608426301272226</v>
+        <v>0.9608426301272228</v>
       </c>
       <c r="H72">
         <v>1.009132871899496</v>
@@ -3065,22 +3065,22 @@
         <v>44306</v>
       </c>
       <c r="B73">
-        <v>1.081247651258925</v>
+        <v>0.9977594639547586</v>
       </c>
       <c r="C73">
-        <v>0.9977594639547586</v>
+        <v>0.9663031893088465</v>
       </c>
       <c r="D73">
         <v>0.8162406483790525</v>
       </c>
       <c r="E73">
+        <v>1.081247651258925</v>
+      </c>
+      <c r="F73">
         <v>0.936037304240718</v>
       </c>
-      <c r="F73">
-        <v>0.9663031893088465</v>
-      </c>
       <c r="G73">
-        <v>0.9595176514284601</v>
+        <v>0.9595176514284602</v>
       </c>
       <c r="H73">
         <v>1.009648019274051</v>
@@ -3094,22 +3094,22 @@
         <v>44307</v>
       </c>
       <c r="B74">
-        <v>1.084178880120255</v>
+        <v>0.9944365800504087</v>
       </c>
       <c r="C74">
-        <v>0.9944365800504087</v>
+        <v>0.9699106337624006</v>
       </c>
       <c r="D74">
         <v>0.8091490024937656</v>
       </c>
       <c r="E74">
+        <v>1.084178880120255</v>
+      </c>
+      <c r="F74">
         <v>0.9349815238430406</v>
       </c>
-      <c r="F74">
-        <v>0.9699106337624006</v>
-      </c>
       <c r="G74">
-        <v>0.9585313240539743</v>
+        <v>0.9585313240539741</v>
       </c>
       <c r="H74">
         <v>1.008347586267553</v>
@@ -3123,22 +3123,22 @@
         <v>44308</v>
       </c>
       <c r="B75">
-        <v>1.084404359263435</v>
+        <v>0.9946952863157321</v>
       </c>
       <c r="C75">
-        <v>0.9946952863157321</v>
+        <v>0.9802410428793966</v>
       </c>
       <c r="D75">
         <v>0.8092269326683292</v>
       </c>
       <c r="E75">
+        <v>1.084404359263435</v>
+      </c>
+      <c r="F75">
         <v>0.9373570297378144</v>
       </c>
-      <c r="F75">
-        <v>0.9802410428793966</v>
-      </c>
       <c r="G75">
-        <v>0.9611849301729415</v>
+        <v>0.9611849301729416</v>
       </c>
       <c r="H75">
         <v>1.012306996423809</v>
@@ -3152,22 +3152,22 @@
         <v>44309</v>
       </c>
       <c r="B76">
-        <v>1.076963547538519</v>
+        <v>1.011937222781352</v>
       </c>
       <c r="C76">
-        <v>1.011937222781352</v>
+        <v>0.9842584242026727</v>
       </c>
       <c r="D76">
         <v>0.8061097256857855</v>
       </c>
       <c r="E76">
+        <v>1.076963547538519</v>
+      </c>
+      <c r="F76">
         <v>0.946067218018652</v>
       </c>
-      <c r="F76">
-        <v>0.9842584242026727</v>
-      </c>
       <c r="G76">
-        <v>0.9650672276453964</v>
+        <v>0.9650672276453963</v>
       </c>
       <c r="H76">
         <v>1.015022514139068</v>
@@ -3181,19 +3181,19 @@
         <v>44312</v>
       </c>
       <c r="B77">
-        <v>1.072453964674934</v>
+        <v>0.9875027952852568</v>
       </c>
       <c r="C77">
-        <v>0.9875027952852568</v>
+        <v>0.9868820201688939</v>
       </c>
       <c r="D77">
         <v>0.8057200748129677</v>
       </c>
       <c r="E77">
+        <v>1.072453964674934</v>
+      </c>
+      <c r="F77">
         <v>0.9409642794298785</v>
-      </c>
-      <c r="F77">
-        <v>0.9868820201688939</v>
       </c>
       <c r="G77">
         <v>0.9587046268743863</v>
@@ -3210,19 +3210,19 @@
         <v>44313</v>
       </c>
       <c r="B78">
-        <v>1.068846298384066</v>
+        <v>0.9833019065865914</v>
       </c>
       <c r="C78">
-        <v>0.9833019065865914</v>
+        <v>0.9753218004427318</v>
       </c>
       <c r="D78">
         <v>0.7945760598503742</v>
       </c>
       <c r="E78">
+        <v>1.068846298384066</v>
+      </c>
+      <c r="F78">
         <v>0.9388527186345239</v>
-      </c>
-      <c r="F78">
-        <v>0.9753218004427318</v>
       </c>
       <c r="G78">
         <v>0.9521797567796575</v>
@@ -3239,19 +3239,19 @@
         <v>44314</v>
       </c>
       <c r="B79">
-        <v>1.077489665539271</v>
+        <v>1.008222176478839</v>
       </c>
       <c r="C79">
-        <v>1.008222176478839</v>
+        <v>0.995244732311224</v>
       </c>
       <c r="D79">
         <v>0.8017456359102244</v>
       </c>
       <c r="E79">
+        <v>1.077489665539271</v>
+      </c>
+      <c r="F79">
         <v>0.9543374978004574</v>
-      </c>
-      <c r="F79">
-        <v>0.995244732311224</v>
       </c>
       <c r="G79">
         <v>0.9674079416080034</v>
@@ -3268,19 +3268,19 @@
         <v>44315</v>
       </c>
       <c r="B80">
-        <v>1.088613303269447</v>
+        <v>1.010195961647215</v>
       </c>
       <c r="C80">
-        <v>1.010195961647215</v>
+        <v>1.00278757071411</v>
       </c>
       <c r="D80">
         <v>0.801278054862843</v>
       </c>
       <c r="E80">
+        <v>1.088613303269447</v>
+      </c>
+      <c r="F80">
         <v>0.9507302481083935</v>
-      </c>
-      <c r="F80">
-        <v>1.00278757071411</v>
       </c>
       <c r="G80">
         <v>0.9707210277204019</v>
@@ -3297,19 +3297,19 @@
         <v>44316</v>
       </c>
       <c r="B81">
-        <v>1.079969936114243</v>
+        <v>1.023828313191575</v>
       </c>
       <c r="C81">
-        <v>1.023828313191575</v>
+        <v>1.008198737394441</v>
       </c>
       <c r="D81">
         <v>0.7742362842892769</v>
       </c>
       <c r="E81">
+        <v>1.079969936114243</v>
+      </c>
+      <c r="F81">
         <v>0.9735175083582615</v>
-      </c>
-      <c r="F81">
-        <v>1.008198737394441</v>
       </c>
       <c r="G81">
         <v>0.9719501558695596</v>
@@ -3326,22 +3326,22 @@
         <v>44322</v>
       </c>
       <c r="B82">
-        <v>1.094400601277715</v>
+        <v>1.015476504253284</v>
       </c>
       <c r="C82">
-        <v>1.015476504253284</v>
+        <v>0.994260883823891</v>
       </c>
       <c r="D82">
         <v>0.7846009975062345</v>
       </c>
       <c r="E82">
+        <v>1.094400601277715</v>
+      </c>
+      <c r="F82">
         <v>0.9692943867675522</v>
       </c>
-      <c r="F82">
-        <v>0.994260883823891</v>
-      </c>
       <c r="G82">
-        <v>0.9716066747257354</v>
+        <v>0.9716066747257355</v>
       </c>
       <c r="H82">
         <v>1.01919866312974</v>
@@ -3355,22 +3355,22 @@
         <v>44323</v>
       </c>
       <c r="B83">
-        <v>1.100263059000376</v>
+        <v>0.9879733678169083</v>
       </c>
       <c r="C83">
-        <v>0.9879733678169083</v>
+        <v>0.9480200049192425</v>
       </c>
       <c r="D83">
         <v>0.7733011221945137</v>
       </c>
       <c r="E83">
+        <v>1.100263059000376</v>
+      </c>
+      <c r="F83">
         <v>0.9435157487242654</v>
       </c>
-      <c r="F83">
-        <v>0.9480200049192425</v>
-      </c>
       <c r="G83">
-        <v>0.9506146605310611</v>
+        <v>0.9506146605310613</v>
       </c>
       <c r="H83">
         <v>1.012145227583629</v>
@@ -3384,19 +3384,19 @@
         <v>44326</v>
       </c>
       <c r="B84">
-        <v>1.109282224727546</v>
+        <v>0.9855024306210293</v>
       </c>
       <c r="C84">
-        <v>0.9855024306210293</v>
+        <v>0.927687136181028</v>
       </c>
       <c r="D84">
         <v>0.7623129675810474</v>
       </c>
       <c r="E84">
+        <v>1.109282224727546</v>
+      </c>
+      <c r="F84">
         <v>0.9534576808023931</v>
-      </c>
-      <c r="F84">
-        <v>0.927687136181028</v>
       </c>
       <c r="G84">
         <v>0.9476484879826088</v>
@@ -3413,22 +3413,22 @@
         <v>44327</v>
       </c>
       <c r="B85">
-        <v>1.10304396843292</v>
+        <v>0.9754708124423276</v>
       </c>
       <c r="C85">
-        <v>0.9754708124423276</v>
+        <v>0.9358858735754694</v>
       </c>
       <c r="D85">
         <v>0.7819513715710724</v>
       </c>
       <c r="E85">
+        <v>1.10304396843292</v>
+      </c>
+      <c r="F85">
         <v>0.9448354742213619</v>
       </c>
-      <c r="F85">
-        <v>0.9358858735754694</v>
-      </c>
       <c r="G85">
-        <v>0.9482375000486303</v>
+        <v>0.9482375000486304</v>
       </c>
       <c r="H85">
         <v>1.013967090249737</v>
@@ -3442,22 +3442,22 @@
         <v>44328</v>
       </c>
       <c r="B86">
-        <v>1.114092446448703</v>
+        <v>0.9719066646788531</v>
       </c>
       <c r="C86">
-        <v>0.9719066646788531</v>
+        <v>0.9504796261375748</v>
       </c>
       <c r="D86">
         <v>0.7791458852867831</v>
       </c>
       <c r="E86">
+        <v>1.114092446448703</v>
+      </c>
+      <c r="F86">
         <v>0.9505542847087806</v>
       </c>
-      <c r="F86">
-        <v>0.9504796261375748</v>
-      </c>
       <c r="G86">
-        <v>0.9532357814521391</v>
+        <v>0.9532357814521389</v>
       </c>
       <c r="H86">
         <v>1.022763859898761</v>
@@ -3471,22 +3471,22 @@
         <v>44329</v>
       </c>
       <c r="B87">
-        <v>1.108756106726794</v>
+        <v>0.9534158271003422</v>
       </c>
       <c r="C87">
-        <v>0.9534158271003422</v>
+        <v>0.9430187751086332</v>
       </c>
       <c r="D87">
         <v>0.7760286783042395</v>
       </c>
       <c r="E87">
+        <v>1.108756106726794</v>
+      </c>
+      <c r="F87">
         <v>0.932254091149041</v>
       </c>
-      <c r="F87">
-        <v>0.9430187751086332</v>
-      </c>
       <c r="G87">
-        <v>0.9426946956778101</v>
+        <v>0.9426946956778102</v>
       </c>
       <c r="H87">
         <v>1.011295548529867</v>
@@ -3500,22 +3500,22 @@
         <v>44330</v>
       </c>
       <c r="B88">
-        <v>1.111161217587373</v>
+        <v>0.9784768404510082</v>
       </c>
       <c r="C88">
-        <v>0.9784768404510082</v>
+        <v>0.9664671640567353</v>
       </c>
       <c r="D88">
         <v>0.8062655860349127</v>
       </c>
       <c r="E88">
+        <v>1.111161217587373</v>
+      </c>
+      <c r="F88">
         <v>0.945451346120007</v>
       </c>
-      <c r="F88">
-        <v>0.9664671640567353</v>
-      </c>
       <c r="G88">
-        <v>0.9615644308500072</v>
+        <v>0.9615644308500073</v>
       </c>
       <c r="H88">
         <v>1.024923395386604</v>
@@ -3529,22 +3529,22 @@
         <v>44333</v>
       </c>
       <c r="B89">
-        <v>1.116798196166854</v>
+        <v>1.00820822255388</v>
       </c>
       <c r="C89">
-        <v>1.00820822255388</v>
+        <v>0.9776174469131753</v>
       </c>
       <c r="D89">
         <v>0.8110193266832918</v>
       </c>
       <c r="E89">
+        <v>1.116798196166854</v>
+      </c>
+      <c r="F89">
         <v>0.9732535632588422</v>
       </c>
-      <c r="F89">
-        <v>0.9776174469131753</v>
-      </c>
       <c r="G89">
-        <v>0.9773793511152088</v>
+        <v>0.9773793511152089</v>
       </c>
       <c r="H89">
         <v>1.033143765381782</v>
@@ -3558,19 +3558,19 @@
         <v>44334</v>
       </c>
       <c r="B90">
-        <v>1.121758737316798</v>
+        <v>1.000863988796736</v>
       </c>
       <c r="C90">
-        <v>1.000863988796736</v>
+        <v>0.9699106337624006</v>
       </c>
       <c r="D90">
         <v>0.8293329177057358</v>
       </c>
       <c r="E90">
+        <v>1.121758737316798</v>
+      </c>
+      <c r="F90">
         <v>0.9691184233679394</v>
-      </c>
-      <c r="F90">
-        <v>0.9699106337624006</v>
       </c>
       <c r="G90">
         <v>0.9781969401899222</v>
@@ -3587,22 +3587,22 @@
         <v>44335</v>
       </c>
       <c r="B91">
-        <v>1.117850432168358</v>
+        <v>1.012187536828461</v>
       </c>
       <c r="C91">
-        <v>1.012187536828461</v>
+        <v>0.9844223989505617</v>
       </c>
       <c r="D91">
         <v>0.8308915211970076</v>
       </c>
       <c r="E91">
+        <v>1.117850432168358</v>
+      </c>
+      <c r="F91">
         <v>0.9848671476332922</v>
       </c>
-      <c r="F91">
-        <v>0.9844223989505617</v>
-      </c>
       <c r="G91">
-        <v>0.9860438073555362</v>
+        <v>0.9860438073555361</v>
       </c>
       <c r="H91">
         <v>1.034125372421711</v>
@@ -3616,19 +3616,19 @@
         <v>44336</v>
       </c>
       <c r="B92">
-        <v>1.102743329575348</v>
+        <v>1.012817151826885</v>
       </c>
       <c r="C92">
-        <v>1.012817151826885</v>
+        <v>0.9827826514716734</v>
       </c>
       <c r="D92">
         <v>0.8322942643391522</v>
       </c>
       <c r="E92">
+        <v>1.102743329575348</v>
+      </c>
+      <c r="F92">
         <v>0.9745732887559386</v>
-      </c>
-      <c r="F92">
-        <v>0.9827826514716734</v>
       </c>
       <c r="G92">
         <v>0.9810421371937994</v>
@@ -3645,19 +3645,19 @@
         <v>44337</v>
       </c>
       <c r="B93">
-        <v>1.106125516723036</v>
+        <v>1.004362736847858</v>
       </c>
       <c r="C93">
-        <v>1.004362736847858</v>
+        <v>0.9732721160941216</v>
       </c>
       <c r="D93">
         <v>0.8153054862842893</v>
       </c>
       <c r="E93">
+        <v>1.106125516723036</v>
+      </c>
+      <c r="F93">
         <v>0.9789723737462608</v>
-      </c>
-      <c r="F93">
-        <v>0.9732721160941216</v>
       </c>
       <c r="G93">
         <v>0.9756076459391132</v>
@@ -3674,22 +3674,22 @@
         <v>44340</v>
       </c>
       <c r="B94">
-        <v>1.112814731304021</v>
+        <v>1.010270560521841</v>
       </c>
       <c r="C94">
-        <v>1.010270560521841</v>
+        <v>0.9822907272280068</v>
       </c>
       <c r="D94">
         <v>0.8232543640897756</v>
       </c>
       <c r="E94">
+        <v>1.112814731304021</v>
+      </c>
+      <c r="F94">
         <v>0.9773887031497448</v>
       </c>
-      <c r="F94">
-        <v>0.9822907272280068</v>
-      </c>
       <c r="G94">
-        <v>0.9812038172586779</v>
+        <v>0.9812038172586778</v>
       </c>
       <c r="H94">
         <v>1.027800681942043</v>
@@ -3703,22 +3703,22 @@
         <v>44341</v>
       </c>
       <c r="B95">
-        <v>1.130477264186396</v>
+        <v>1.027854939217063</v>
       </c>
       <c r="C95">
-        <v>1.027854939217063</v>
+        <v>1.014429777814217</v>
       </c>
       <c r="D95">
         <v>0.8514650872817956</v>
       </c>
       <c r="E95">
+        <v>1.130477264186396</v>
+      </c>
+      <c r="F95">
         <v>0.9863628365300017</v>
       </c>
-      <c r="F95">
-        <v>1.014429777814217</v>
-      </c>
       <c r="G95">
-        <v>1.002117981005894</v>
+        <v>1.002117981005895</v>
       </c>
       <c r="H95">
         <v>1.0396663478407</v>
@@ -3732,19 +3732,19 @@
         <v>44342</v>
       </c>
       <c r="B96">
-        <v>1.136189402480271</v>
+        <v>1.019992001818778</v>
       </c>
       <c r="C96">
-        <v>1.019992001818778</v>
+        <v>1.002459621218332</v>
       </c>
       <c r="D96">
         <v>0.8516209476309228</v>
       </c>
       <c r="E96">
+        <v>1.136189402480271</v>
+      </c>
+      <c r="F96">
         <v>0.9736934717578744</v>
-      </c>
-      <c r="F96">
-        <v>1.002459621218332</v>
       </c>
       <c r="G96">
         <v>0.9967910889812356</v>
@@ -3761,19 +3761,19 @@
         <v>44343</v>
       </c>
       <c r="B97">
-        <v>1.141901540774145</v>
+        <v>1.027098174663985</v>
       </c>
       <c r="C97">
-        <v>1.027098174663985</v>
+        <v>1.044929080921538</v>
       </c>
       <c r="D97">
         <v>0.8588684538653368</v>
       </c>
       <c r="E97">
+        <v>1.141901540774145</v>
+      </c>
+      <c r="F97">
         <v>0.9847791659334858</v>
-      </c>
-      <c r="F97">
-        <v>1.044929080921538</v>
       </c>
       <c r="G97">
         <v>1.011515283231698</v>
@@ -3790,19 +3790,19 @@
         <v>44344</v>
       </c>
       <c r="B98">
-        <v>1.148816234498309</v>
+        <v>1.045181443420068</v>
       </c>
       <c r="C98">
-        <v>1.045181443420068</v>
+        <v>1.034762646552431</v>
       </c>
       <c r="D98">
         <v>0.8636221945137158</v>
       </c>
       <c r="E98">
+        <v>1.148816234498309</v>
+      </c>
+      <c r="F98">
         <v>0.9952489882104522</v>
-      </c>
-      <c r="F98">
-        <v>1.034762646552431</v>
       </c>
       <c r="G98">
         <v>1.017526301438995</v>
@@ -3819,19 +3819,19 @@
         <v>44347</v>
       </c>
       <c r="B99">
-        <v>1.157158962795941</v>
+        <v>1.077606578595302</v>
       </c>
       <c r="C99">
-        <v>1.077606578595302</v>
+        <v>1.060506681970977</v>
       </c>
       <c r="D99">
         <v>0.8893391521197008</v>
       </c>
       <c r="E99">
+        <v>1.157158962795941</v>
+      </c>
+      <c r="F99">
         <v>1.035192679922576</v>
-      </c>
-      <c r="F99">
-        <v>1.060506681970977</v>
       </c>
       <c r="G99">
         <v>1.0439608110809</v>
@@ -3848,19 +3848,19 @@
         <v>44348</v>
       </c>
       <c r="B100">
-        <v>1.156332205937617</v>
+        <v>1.070294895720047</v>
       </c>
       <c r="C100">
-        <v>1.070294895720047</v>
+        <v>1.072230876445027</v>
       </c>
       <c r="D100">
         <v>0.883806109725686</v>
       </c>
       <c r="E100">
+        <v>1.156332205937617</v>
+      </c>
+      <c r="F100">
         <v>1.029297906035544</v>
-      </c>
-      <c r="F100">
-        <v>1.072230876445027</v>
       </c>
       <c r="G100">
         <v>1.042392398772785</v>
@@ -3877,19 +3877,19 @@
         <v>44349</v>
       </c>
       <c r="B101">
-        <v>1.157309282224728</v>
+        <v>1.061065243376252</v>
       </c>
       <c r="C101">
-        <v>1.061065243376252</v>
+        <v>1.059604820857588</v>
       </c>
       <c r="D101">
         <v>0.8630766832917706</v>
       </c>
       <c r="E101">
+        <v>1.157309282224728</v>
+      </c>
+      <c r="F101">
         <v>1.013285236670772</v>
-      </c>
-      <c r="F101">
-        <v>1.059604820857588</v>
       </c>
       <c r="G101">
         <v>1.030868253284222</v>
@@ -3906,19 +3906,19 @@
         <v>44350</v>
       </c>
       <c r="B102">
-        <v>1.15467869222097</v>
+        <v>1.038995236460245</v>
       </c>
       <c r="C102">
-        <v>1.038995236460245</v>
+        <v>1.043617282938427</v>
       </c>
       <c r="D102">
         <v>0.8511533665835412</v>
       </c>
       <c r="E102">
+        <v>1.15467869222097</v>
+      </c>
+      <c r="F102">
         <v>0.9834594404363891</v>
-      </c>
-      <c r="F102">
-        <v>1.043617282938427</v>
       </c>
       <c r="G102">
         <v>1.014380803727915</v>
@@ -3935,19 +3935,19 @@
         <v>44351</v>
       </c>
       <c r="B103">
-        <v>1.151897782788425</v>
+        <v>1.049185810204051</v>
       </c>
       <c r="C103">
-        <v>1.049185810204051</v>
+        <v>1.066655735016807</v>
       </c>
       <c r="D103">
         <v>0.8606608478802994</v>
       </c>
       <c r="E103">
+        <v>1.151897782788425</v>
+      </c>
+      <c r="F103">
         <v>0.9824916417385183</v>
-      </c>
-      <c r="F103">
-        <v>1.066655735016807</v>
       </c>
       <c r="G103">
         <v>1.02217836352562</v>
@@ -3964,19 +3964,19 @@
         <v>44354</v>
       </c>
       <c r="B104">
-        <v>1.140849304772642</v>
+        <v>1.027612260102204</v>
       </c>
       <c r="C104">
-        <v>1.027612260102204</v>
+        <v>1.09067803558252</v>
       </c>
       <c r="D104">
         <v>0.8759351620947633</v>
       </c>
       <c r="E104">
+        <v>1.140849304772642</v>
+      </c>
+      <c r="F104">
         <v>0.9783565018476157</v>
-      </c>
-      <c r="F104">
-        <v>1.09067803558252</v>
       </c>
       <c r="G104">
         <v>1.022686252879949</v>
@@ -3993,19 +3993,19 @@
         <v>44355</v>
       </c>
       <c r="B105">
-        <v>1.142653137918076</v>
+        <v>1.02929647649863</v>
       </c>
       <c r="C105">
-        <v>1.02929647649863</v>
+        <v>1.083955070919078</v>
       </c>
       <c r="D105">
         <v>0.8875467581047383</v>
       </c>
       <c r="E105">
+        <v>1.142653137918076</v>
+      </c>
+      <c r="F105">
         <v>0.9735175083582615</v>
-      </c>
-      <c r="F105">
-        <v>1.083955070919078</v>
       </c>
       <c r="G105">
         <v>1.023393790359757</v>
@@ -4022,19 +4022,19 @@
         <v>44356</v>
       </c>
       <c r="B106">
-        <v>1.145509207065013</v>
+        <v>1.03198327743756</v>
       </c>
       <c r="C106">
-        <v>1.03198327743756</v>
+        <v>1.097974911863573</v>
       </c>
       <c r="D106">
         <v>0.8935473815461348</v>
       </c>
       <c r="E106">
+        <v>1.145509207065013</v>
+      </c>
+      <c r="F106">
         <v>0.9815238430406474</v>
-      </c>
-      <c r="F106">
-        <v>1.097974911863573</v>
       </c>
       <c r="G106">
         <v>1.030107724190586</v>
@@ -4051,19 +4051,19 @@
         <v>44357</v>
       </c>
       <c r="B107">
-        <v>1.145809845922585</v>
+        <v>1.06555237375444</v>
       </c>
       <c r="C107">
-        <v>1.06555237375444</v>
+        <v>1.113388538165123</v>
       </c>
       <c r="D107">
         <v>0.8955735660847881</v>
       </c>
       <c r="E107">
+        <v>1.145809845922585</v>
+      </c>
+      <c r="F107">
         <v>1.027538272039416</v>
-      </c>
-      <c r="F107">
-        <v>1.113388538165123</v>
       </c>
       <c r="G107">
         <v>1.049572519193271</v>
@@ -4080,19 +4080,19 @@
         <v>44358</v>
       </c>
       <c r="B108">
-        <v>1.142577978203683</v>
+        <v>1.081025017090765</v>
       </c>
       <c r="C108">
-        <v>1.081025017090765</v>
+        <v>1.095351315897352</v>
       </c>
       <c r="D108">
         <v>0.8650249376558605</v>
       </c>
       <c r="E108">
+        <v>1.142577978203683</v>
+      </c>
+      <c r="F108">
         <v>1.050589477388703</v>
-      </c>
-      <c r="F108">
-        <v>1.095351315897352</v>
       </c>
       <c r="G108">
         <v>1.046913745247273</v>
@@ -4109,22 +4109,22 @@
         <v>44362</v>
       </c>
       <c r="B109">
-        <v>1.131905298759865</v>
+        <v>1.066108730646828</v>
       </c>
       <c r="C109">
-        <v>1.066108730646828</v>
+        <v>1.110027055833402</v>
       </c>
       <c r="D109">
         <v>0.8675966334164589</v>
       </c>
       <c r="E109">
+        <v>1.131905298759865</v>
+      </c>
+      <c r="F109">
         <v>1.039943691712124</v>
       </c>
-      <c r="F109">
-        <v>1.110027055833402</v>
-      </c>
       <c r="G109">
-        <v>1.043116282073735</v>
+        <v>1.043116282073736</v>
       </c>
       <c r="H109">
         <v>1.046575290830534</v>
@@ -4138,19 +4138,19 @@
         <v>44363</v>
       </c>
       <c r="B110">
-        <v>1.129124389327321</v>
+        <v>1.021693263356634</v>
       </c>
       <c r="C110">
-        <v>1.021693263356634</v>
+        <v>1.074936459785193</v>
       </c>
       <c r="D110">
         <v>0.8565305486284289</v>
       </c>
       <c r="E110">
+        <v>1.129124389327321</v>
+      </c>
+      <c r="F110">
         <v>0.9936653176139362</v>
-      </c>
-      <c r="F110">
-        <v>1.074936459785193</v>
       </c>
       <c r="G110">
         <v>1.015189995742303</v>
@@ -4167,22 +4167,22 @@
         <v>44364</v>
       </c>
       <c r="B111">
-        <v>1.128072153325817</v>
+        <v>1.039040226695167</v>
       </c>
       <c r="C111">
-        <v>1.039040226695167</v>
+        <v>1.162662949905714</v>
       </c>
       <c r="D111">
         <v>0.8651028678304241</v>
       </c>
       <c r="E111">
+        <v>1.128072153325817</v>
+      </c>
+      <c r="F111">
         <v>1.014956888967095</v>
       </c>
-      <c r="F111">
-        <v>1.162662949905714</v>
-      </c>
       <c r="G111">
-        <v>1.041967017344843</v>
+        <v>1.041967017344844</v>
       </c>
       <c r="H111">
         <v>1.03911664789834</v>
@@ -4196,19 +4196,19 @@
         <v>44365</v>
       </c>
       <c r="B112">
-        <v>1.122510334460729</v>
+        <v>1.06684170897195</v>
       </c>
       <c r="C112">
-        <v>1.06684170897195</v>
+        <v>1.171435598917767</v>
       </c>
       <c r="D112">
         <v>0.8840399002493767</v>
       </c>
       <c r="E112">
+        <v>1.122510334460729</v>
+      </c>
+      <c r="F112">
         <v>1.038184057715995</v>
-      </c>
-      <c r="F112">
-        <v>1.171435598917767</v>
       </c>
       <c r="G112">
         <v>1.056602320063164</v>
@@ -4225,19 +4225,19 @@
         <v>44368</v>
       </c>
       <c r="B113">
-        <v>1.121608417888012</v>
+        <v>1.081004197934042</v>
       </c>
       <c r="C113">
-        <v>1.081004197934042</v>
+        <v>1.177830614085431</v>
       </c>
       <c r="D113">
         <v>0.9191084788029926</v>
       </c>
       <c r="E113">
+        <v>1.121608417888012</v>
+      </c>
+      <c r="F113">
         <v>1.070649304944572</v>
-      </c>
-      <c r="F113">
-        <v>1.177830614085431</v>
       </c>
       <c r="G113">
         <v>1.07404020273101</v>
@@ -4254,19 +4254,19 @@
         <v>44369</v>
       </c>
       <c r="B114">
-        <v>1.125742202179632</v>
+        <v>1.085273316856529</v>
       </c>
       <c r="C114">
-        <v>1.085273316856529</v>
+        <v>1.176026891858654</v>
       </c>
       <c r="D114">
         <v>0.912562344139651</v>
       </c>
       <c r="E114">
+        <v>1.125742202179632</v>
+      </c>
+      <c r="F114">
         <v>1.07364068273799</v>
-      </c>
-      <c r="F114">
-        <v>1.176026891858654</v>
       </c>
       <c r="G114">
         <v>1.074649087554491</v>
@@ -4283,19 +4283,19 @@
         <v>44370</v>
       </c>
       <c r="B115">
-        <v>1.139120631341601</v>
+        <v>1.100747512008352</v>
       </c>
       <c r="C115">
-        <v>1.100747512008352</v>
+        <v>1.231778306140854</v>
       </c>
       <c r="D115">
         <v>0.9116271820448878</v>
       </c>
       <c r="E115">
+        <v>1.139120631341601</v>
+      </c>
+      <c r="F115">
         <v>1.088509590005279</v>
-      </c>
-      <c r="F115">
-        <v>1.231778306140854</v>
       </c>
       <c r="G115">
         <v>1.094356644308195</v>
@@ -4312,19 +4312,19 @@
         <v>44371</v>
       </c>
       <c r="B116">
-        <v>1.138669673055242</v>
+        <v>1.113809018910833</v>
       </c>
       <c r="C116">
-        <v>1.113809018910833</v>
+        <v>1.212265311142084</v>
       </c>
       <c r="D116">
         <v>0.8972880299251871</v>
       </c>
       <c r="E116">
+        <v>1.138669673055242</v>
+      </c>
+      <c r="F116">
         <v>1.123790251627661</v>
-      </c>
-      <c r="F116">
-        <v>1.212265311142084</v>
       </c>
       <c r="G116">
         <v>1.097164456932202</v>
@@ -4341,19 +4341,19 @@
         <v>44372</v>
       </c>
       <c r="B117">
-        <v>1.144532130777903</v>
+        <v>1.131908687253101</v>
       </c>
       <c r="C117">
-        <v>1.131908687253101</v>
+        <v>1.227678937443634</v>
       </c>
       <c r="D117">
         <v>0.8997817955112221</v>
       </c>
       <c r="E117">
+        <v>1.144532130777903</v>
+      </c>
+      <c r="F117">
         <v>1.129773007214499</v>
-      </c>
-      <c r="F117">
-        <v>1.227678937443634</v>
       </c>
       <c r="G117">
         <v>1.106734911640072</v>
@@ -4370,28 +4370,289 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.144532130777903</v>
+        <v>1.146698010360243</v>
       </c>
       <c r="C118">
-        <v>1.146698047603815</v>
+        <v>1.248913667295237</v>
       </c>
       <c r="D118">
-        <v>0.8997817955112221</v>
+        <v>0.9050031172069826</v>
       </c>
       <c r="E118">
-        <v>1.129773007214499</v>
+        <v>1.125291243893273</v>
       </c>
       <c r="F118">
-        <v>1.227678937443634</v>
+        <v>1.144377969382368</v>
       </c>
       <c r="G118">
-        <v>1.109692783710215</v>
+        <v>1.114056801627621</v>
       </c>
       <c r="H118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="I118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.160105385900947</v>
+      </c>
+      <c r="C119">
+        <v>1.23579568746413</v>
+      </c>
+      <c r="D119">
+        <v>0.8849750623441397</v>
+      </c>
+      <c r="E119">
+        <v>1.122209695603157</v>
+      </c>
+      <c r="F119">
+        <v>1.176139363012493</v>
+      </c>
+      <c r="G119">
+        <v>1.115845038864974</v>
+      </c>
+      <c r="H119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="I119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.183642777137457</v>
+      </c>
+      <c r="C120">
+        <v>1.295564483069607</v>
+      </c>
+      <c r="D120">
+        <v>0.8979114713216958</v>
+      </c>
+      <c r="E120">
+        <v>1.127921833897031</v>
+      </c>
+      <c r="F120">
+        <v>1.190920288579975</v>
+      </c>
+      <c r="G120">
+        <v>1.139192170801153</v>
+      </c>
+      <c r="H120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="I120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.161165300715214</v>
+      </c>
+      <c r="C121">
+        <v>1.264245306222842</v>
+      </c>
+      <c r="D121">
+        <v>0.859569825436409</v>
+      </c>
+      <c r="E121">
+        <v>1.135813603908305</v>
+      </c>
+      <c r="F121">
+        <v>1.153704029561851</v>
+      </c>
+      <c r="G121">
+        <v>1.114899613168924</v>
+      </c>
+      <c r="H121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="I121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.138213688792936</v>
+      </c>
+      <c r="C122">
+        <v>1.24358448798885</v>
+      </c>
+      <c r="D122">
+        <v>0.8307356608478804</v>
+      </c>
+      <c r="E122">
+        <v>1.124163848177377</v>
+      </c>
+      <c r="F122">
+        <v>1.138571177195143</v>
+      </c>
+      <c r="G122">
+        <v>1.095053772600437</v>
+      </c>
+      <c r="H122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="I122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.144097055854669</v>
+      </c>
+      <c r="C123">
+        <v>1.296466344182996</v>
+      </c>
+      <c r="D123">
+        <v>0.8346321695760599</v>
+      </c>
+      <c r="E123">
+        <v>1.121007140172867</v>
+      </c>
+      <c r="F123">
+        <v>1.157311279253915</v>
+      </c>
+      <c r="G123">
+        <v>1.110702797808101</v>
+      </c>
+      <c r="H123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="I123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.134395912304448</v>
+      </c>
+      <c r="C124">
+        <v>1.269656472903173</v>
+      </c>
+      <c r="D124">
+        <v>0.8402431421446385</v>
+      </c>
+      <c r="E124">
+        <v>1.125140924464487</v>
+      </c>
+      <c r="F124">
+        <v>1.134875945803273</v>
+      </c>
+      <c r="G124">
+        <v>1.100862479524004</v>
+      </c>
+      <c r="H124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="I124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.18707277355475</v>
+      </c>
+      <c r="C125">
+        <v>1.307042715421825</v>
+      </c>
+      <c r="D125">
+        <v>0.8637001246882794</v>
+      </c>
+      <c r="E125">
+        <v>1.122510334460729</v>
+      </c>
+      <c r="F125">
+        <v>1.195759282069329</v>
+      </c>
+      <c r="G125">
+        <v>1.135217046038983</v>
+      </c>
+      <c r="H125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="I125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.203272436244684</v>
+      </c>
+      <c r="C126">
+        <v>1.345740755923588</v>
+      </c>
+      <c r="D126">
+        <v>0.8980673316708231</v>
+      </c>
+      <c r="E126">
+        <v>1.102517850432168</v>
+      </c>
+      <c r="F126">
+        <v>1.207724793243006</v>
+      </c>
+      <c r="G126">
+        <v>1.151464633502854</v>
+      </c>
+      <c r="H126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="I126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.206036207232322</v>
+      </c>
+      <c r="C127">
+        <v>1.325243912437485</v>
+      </c>
+      <c r="D127">
+        <v>0.8907418952618454</v>
+      </c>
+      <c r="E127">
+        <v>1.113340849304773</v>
+      </c>
+      <c r="F127">
+        <v>1.215731127925391</v>
+      </c>
+      <c r="G127">
+        <v>1.150218798432363</v>
+      </c>
+      <c r="H127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="I127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4444,10 +4705,10 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4464,13 +4725,13 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4487,13 +4748,13 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -4503,13 +4764,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -4535,22 +4796,19 @@
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4561,37 +4819,34 @@
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I2">
         <v>0.2</v>
       </c>
       <c r="J2">
-        <v>5.88</v>
+        <v>4.518700122833252</v>
       </c>
       <c r="K2">
-        <v>0.67</v>
+        <v>39.26179885864258</v>
       </c>
       <c r="L2">
-        <v>8.09</v>
-      </c>
-      <c r="M2">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>21.5733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4599,40 +4854,37 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I3">
         <v>0.2</v>
       </c>
       <c r="J3">
-        <v>36.67</v>
+        <v>9.079999923706055</v>
       </c>
       <c r="K3">
-        <v>4.21</v>
+        <v>87.84709930419922</v>
       </c>
       <c r="L3">
-        <v>14.81</v>
-      </c>
-      <c r="M3">
-        <v>21.57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>59.9349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4640,40 +4892,37 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4">
         <v>0.2</v>
       </c>
       <c r="J4">
-        <v>67.98</v>
+        <v>3.740200042724609</v>
       </c>
       <c r="K4">
-        <v>3.81</v>
+        <v>66.89820098876953</v>
       </c>
       <c r="L4">
-        <v>1.45</v>
-      </c>
-      <c r="M4">
-        <v>27.09</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>27.0909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4681,40 +4930,37 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I5">
         <v>0.2</v>
       </c>
       <c r="J5">
-        <v>48.82</v>
+        <v>0.6642000079154968</v>
       </c>
       <c r="K5">
-        <v>4.98</v>
+        <v>5.72819995880127</v>
       </c>
       <c r="L5">
-        <v>15.45</v>
-      </c>
-      <c r="M5">
-        <v>44.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>-0.3494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4722,37 +4968,34 @@
         <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6">
         <v>0.2</v>
       </c>
       <c r="J6">
-        <v>81.61</v>
+        <v>5.359000205993652</v>
       </c>
       <c r="K6">
-        <v>8.33</v>
+        <v>52.7661018371582</v>
       </c>
       <c r="L6">
-        <v>20.06</v>
-      </c>
-      <c r="M6">
-        <v>59.93</v>
+        <v>44.9032</v>
       </c>
     </row>
   </sheetData>
@@ -4770,19 +5013,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4790,19 +5033,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4810,19 +5053,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4830,19 +5073,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4850,19 +5093,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4870,19 +5113,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4890,19 +5133,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4910,19 +5153,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4930,19 +5173,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4950,19 +5193,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4970,19 +5213,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4990,19 +5233,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5010,19 +5253,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5030,19 +5273,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F14" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5050,19 +5293,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5070,19 +5313,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5090,19 +5333,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5110,19 +5353,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5130,19 +5373,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5150,19 +5393,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5170,19 +5413,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5192,7 +5435,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5200,32 +5443,32 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5233,75 +5476,53 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" t="s">
         <v>194</v>
       </c>
     </row>
